--- a/Table/Table_xls/技能相关表/j技能表-复合/宠物技能.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/宠物技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1573,20 +1573,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1602,16 +1588,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,54 +1670,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1687,22 +1694,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1710,8 +1701,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,85 +1822,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,25 +1864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,7 +1894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,19 +1936,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,6 +2073,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2089,6 +2104,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2116,30 +2140,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2148,10 +2148,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2160,137 +2160,137 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2536,6 +2536,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2591,6 +2594,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2932,7 +2944,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S226" sqref="S226"/>
+      <selection pane="bottomRight" activeCell="O238" sqref="O238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19777,10 +19789,10 @@
       <c r="X224" s="38">
         <v>0</v>
       </c>
-      <c r="Y224" s="83">
+      <c r="Y224" s="84">
         <v>90</v>
       </c>
-      <c r="Z224" s="83">
+      <c r="Z224" s="84">
         <v>203</v>
       </c>
       <c r="AB224" s="38">
@@ -19848,10 +19860,10 @@
       <c r="X225" s="38">
         <v>0</v>
       </c>
-      <c r="Y225" s="83">
+      <c r="Y225" s="84">
         <v>90</v>
       </c>
-      <c r="Z225" s="83">
+      <c r="Z225" s="84">
         <v>204</v>
       </c>
       <c r="AB225" s="38">
@@ -21680,8 +21692,8 @@
       <c r="N250" s="74">
         <v>0</v>
       </c>
-      <c r="S250" s="81">
-        <v>8210037</v>
+      <c r="S250" s="83">
+        <v>8210018</v>
       </c>
       <c r="T250" s="8">
         <v>0</v>
@@ -22050,8 +22062,8 @@
       <c r="N255" s="74">
         <v>0</v>
       </c>
-      <c r="S255" s="81">
-        <v>8210042</v>
+      <c r="S255" s="83">
+        <v>8210022</v>
       </c>
       <c r="T255" s="8">
         <v>0</v>
@@ -22606,6 +22618,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S250 S255">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>

--- a/Table/Table_xls/技能相关表/j技能表-复合/宠物技能.xlsx
+++ b/Table/Table_xls/技能相关表/j技能表-复合/宠物技能.xlsx
@@ -2067,10 +2067,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="@&quot;0&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2129,15 +2129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2151,14 +2150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,20 +2165,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2194,55 +2172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2264,6 +2196,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2272,6 +2258,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2288,7 +2289,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2387,7 +2387,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,31 +2471,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,121 +2543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,17 +2638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2666,8 +2655,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2684,6 +2675,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2713,10 +2713,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2725,10 +2725,10 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2737,118 +2737,118 @@
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2910,6 +2910,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2931,6 +2946,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2946,20 +2964,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2991,13 +2997,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3482,11 +3482,11 @@
   <dimension ref="A1:AK275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R281" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z272" sqref="Z272:Z275"/>
+      <selection pane="bottomRight" activeCell="Z218" sqref="Z218:Z223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3544,7 +3544,7 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -3562,73 +3562,73 @@
       <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="31" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="34" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="35" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       <c r="N2" s="16">
         <v>0</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="28">
         <v>2060010</v>
       </c>
       <c r="T2" s="2">
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="Z2" s="2">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="AB2" s="2">
         <v>14</v>
@@ -3743,7 +3743,7 @@
       <c r="N3" s="16">
         <v>0</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="28">
         <v>2060020</v>
       </c>
       <c r="T3" s="2">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="AB3" s="2">
         <v>14</v>
@@ -3817,7 +3817,7 @@
       <c r="N4" s="16">
         <v>0</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="28">
         <v>2060030</v>
       </c>
       <c r="T4" s="2">
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="AB4" s="2">
         <v>14</v>
@@ -3891,7 +3891,7 @@
       <c r="N5" s="16">
         <v>0</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="28">
         <v>2060040</v>
       </c>
       <c r="T5" s="2">
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="AB5" s="2">
         <v>14</v>
@@ -3965,7 +3965,7 @@
       <c r="N6" s="16">
         <v>0</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="28">
         <v>2060050</v>
       </c>
       <c r="T6" s="2">
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="AB6" s="2">
         <v>14</v>
@@ -4039,7 +4039,7 @@
       <c r="N7" s="16">
         <v>0</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="28">
         <v>2060060</v>
       </c>
       <c r="T7" s="2">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="AB7" s="2">
         <v>14</v>
@@ -4113,7 +4113,7 @@
       <c r="N8" s="16">
         <v>0</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="28">
         <v>2060070</v>
       </c>
       <c r="T8" s="2">
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="2">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="AB8" s="2">
         <v>14</v>
@@ -4187,7 +4187,7 @@
       <c r="N9" s="16">
         <v>0</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="28">
         <v>2060080</v>
       </c>
       <c r="T9" s="2">
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="Z9" s="2">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="2">
         <v>14</v>
@@ -4261,7 +4261,7 @@
       <c r="N10" s="16">
         <v>0</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="28">
         <v>2060090</v>
       </c>
       <c r="T10" s="2">
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="AB10" s="2">
         <v>14</v>
@@ -4335,7 +4335,7 @@
       <c r="N11" s="16">
         <v>0</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="28">
         <v>2060100</v>
       </c>
       <c r="T11" s="2">
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="Z11" s="2">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="AB11" s="2">
         <v>14</v>
@@ -4409,7 +4409,7 @@
       <c r="N12" s="16">
         <v>0</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="28">
         <v>2060110</v>
       </c>
       <c r="T12" s="2">
@@ -4431,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="AB12" s="2">
         <v>14</v>
@@ -4483,7 +4483,7 @@
       <c r="N13" s="16">
         <v>0</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="28">
         <v>2060120</v>
       </c>
       <c r="T13" s="2">
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="Z13" s="2">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="AB13" s="2">
         <v>14</v>
@@ -4557,7 +4557,7 @@
       <c r="N14" s="16">
         <v>0</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="T14" s="2">
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="Z14" s="2">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="AB14" s="2">
         <v>14</v>
@@ -4631,7 +4631,7 @@
       <c r="N15" s="16">
         <v>0</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="28">
         <v>2060140</v>
       </c>
       <c r="T15" s="2">
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="AB15" s="2">
         <v>14</v>
@@ -4705,7 +4705,7 @@
       <c r="N16" s="16">
         <v>0</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="28">
         <v>2060150</v>
       </c>
       <c r="T16" s="2">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="2">
         <v>14</v>
@@ -4779,7 +4779,7 @@
       <c r="N17" s="16">
         <v>0</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="28">
         <v>2060160</v>
       </c>
       <c r="T17" s="2">
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="Z17" s="2">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="AB17" s="2">
         <v>14</v>
@@ -4853,7 +4853,7 @@
       <c r="N18" s="16">
         <v>0</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="28">
         <v>2060170</v>
       </c>
       <c r="T18" s="2">
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="Z18" s="2">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="AB18" s="2">
         <v>14</v>
@@ -4927,7 +4927,7 @@
       <c r="N19" s="16">
         <v>0</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="28">
         <v>2060180</v>
       </c>
       <c r="T19" s="2">
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="Z19" s="2">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="AB19" s="2">
         <v>14</v>
@@ -5001,7 +5001,7 @@
       <c r="N20" s="16">
         <v>0</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="28">
         <v>2060190</v>
       </c>
       <c r="T20" s="2">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="AB20" s="2">
         <v>14</v>
@@ -5075,7 +5075,7 @@
       <c r="N21" s="16">
         <v>0</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="28">
         <v>2060200</v>
       </c>
       <c r="T21" s="2">
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="Z21" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AB21" s="2">
         <v>14</v>
@@ -5149,7 +5149,7 @@
       <c r="N22" s="16">
         <v>0</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="28">
         <v>2060210</v>
       </c>
       <c r="T22" s="2">
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Z22" s="2">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="AB22" s="2">
         <v>14</v>
@@ -5223,7 +5223,7 @@
       <c r="N23" s="16">
         <v>0</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="28">
         <v>2060220</v>
       </c>
       <c r="T23" s="2">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="AB23" s="2">
         <v>14</v>
@@ -5297,7 +5297,7 @@
       <c r="N24" s="16">
         <v>0</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="28">
         <v>2060230</v>
       </c>
       <c r="T24" s="2">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="Z24" s="2">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="AB24" s="2">
         <v>14</v>
@@ -5371,7 +5371,7 @@
       <c r="N25" s="16">
         <v>0</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="28">
         <v>2060240</v>
       </c>
       <c r="T25" s="2">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="AB25" s="2">
         <v>14</v>
@@ -5445,7 +5445,7 @@
       <c r="N26" s="16">
         <v>0</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="28">
         <v>2060250</v>
       </c>
       <c r="T26" s="2">
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="AB26" s="2">
         <v>14</v>
@@ -5519,7 +5519,7 @@
       <c r="N27" s="16">
         <v>0</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="28">
         <v>2060260</v>
       </c>
       <c r="T27" s="2">
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="Z27" s="2">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="AB27" s="2">
         <v>14</v>
@@ -5593,7 +5593,7 @@
       <c r="N28" s="16">
         <v>0</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="28">
         <v>2060270</v>
       </c>
       <c r="T28" s="2">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="Z28" s="2">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="AB28" s="2">
         <v>14</v>
@@ -5667,7 +5667,7 @@
       <c r="N29" s="16">
         <v>0</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="28">
         <v>2060280</v>
       </c>
       <c r="T29" s="2">
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="2">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="AB29" s="2">
         <v>14</v>
@@ -5741,7 +5741,7 @@
       <c r="N30" s="16">
         <v>0</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="28">
         <v>2060290</v>
       </c>
       <c r="T30" s="2">
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="Z30" s="2">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="AB30" s="2">
         <v>14</v>
@@ -5815,7 +5815,7 @@
       <c r="N31" s="16">
         <v>0</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="28">
         <v>2060300</v>
       </c>
       <c r="T31" s="2">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="Z31" s="2">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="AB31" s="2">
         <v>14</v>
@@ -5889,7 +5889,7 @@
       <c r="N32" s="16">
         <v>0</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="28">
         <v>2060310</v>
       </c>
       <c r="T32" s="2">
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="Z32" s="2">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="AB32" s="2">
         <v>14</v>
@@ -5963,7 +5963,7 @@
       <c r="N33" s="16">
         <v>0</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S33" s="28">
         <v>2060320</v>
       </c>
       <c r="T33" s="2">
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="Z33" s="2">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="AB33" s="2">
         <v>14</v>
@@ -6037,7 +6037,7 @@
       <c r="N34" s="16">
         <v>0</v>
       </c>
-      <c r="S34" s="23">
+      <c r="S34" s="28">
         <v>2060330</v>
       </c>
       <c r="T34" s="2">
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="Z34" s="2">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="AB34" s="2">
         <v>14</v>
@@ -6111,7 +6111,7 @@
       <c r="N35" s="16">
         <v>0</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S35" s="28">
         <v>2060340</v>
       </c>
       <c r="T35" s="2">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="Z35" s="2">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="AB35" s="2">
         <v>14</v>
@@ -6185,7 +6185,7 @@
       <c r="N36" s="16">
         <v>0</v>
       </c>
-      <c r="S36" s="23">
+      <c r="S36" s="28">
         <v>2060350</v>
       </c>
       <c r="T36" s="2">
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="AB36" s="2">
         <v>14</v>
@@ -6259,7 +6259,7 @@
       <c r="N37" s="16">
         <v>0</v>
       </c>
-      <c r="S37" s="23">
+      <c r="S37" s="28">
         <v>2060360</v>
       </c>
       <c r="T37" s="2">
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="Z37" s="2">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="AB37" s="2">
         <v>14</v>
@@ -6333,7 +6333,7 @@
       <c r="N38" s="16">
         <v>0</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S38" s="28">
         <v>2060370</v>
       </c>
       <c r="T38" s="2">
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="Z38" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="AB38" s="2">
         <v>14</v>
@@ -6407,7 +6407,7 @@
       <c r="N39" s="16">
         <v>0</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S39" s="28">
         <v>2060380</v>
       </c>
       <c r="T39" s="2">
@@ -6428,8 +6428,8 @@
       <c r="Y39" s="2">
         <v>1</v>
       </c>
-      <c r="Z39" s="2">
-        <v>38</v>
+      <c r="Z39" s="3">
+        <v>1</v>
       </c>
       <c r="AB39" s="2">
         <v>14</v>
@@ -6481,7 +6481,7 @@
       <c r="N40" s="16">
         <v>0</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S40" s="28">
         <v>2060390</v>
       </c>
       <c r="T40" s="2">
@@ -6502,8 +6502,8 @@
       <c r="Y40" s="2">
         <v>1</v>
       </c>
-      <c r="Z40" s="2">
-        <v>39</v>
+      <c r="Z40" s="3">
+        <v>2</v>
       </c>
       <c r="AB40" s="2">
         <v>14</v>
@@ -6555,7 +6555,7 @@
       <c r="N41" s="16">
         <v>0</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S41" s="28">
         <v>2060400</v>
       </c>
       <c r="T41" s="2">
@@ -6576,8 +6576,8 @@
       <c r="Y41" s="2">
         <v>1</v>
       </c>
-      <c r="Z41" s="2">
-        <v>40</v>
+      <c r="Z41" s="3">
+        <v>3</v>
       </c>
       <c r="AB41" s="2">
         <v>14</v>
@@ -6629,7 +6629,7 @@
       <c r="N42" s="16">
         <v>0</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S42" s="28">
         <v>2060410</v>
       </c>
       <c r="T42" s="2">
@@ -6650,8 +6650,8 @@
       <c r="Y42" s="2">
         <v>1</v>
       </c>
-      <c r="Z42" s="2">
-        <v>41</v>
+      <c r="Z42" s="3">
+        <v>4</v>
       </c>
       <c r="AB42" s="2">
         <v>14</v>
@@ -6703,7 +6703,7 @@
       <c r="N43" s="16">
         <v>0</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="28">
         <v>2060420</v>
       </c>
       <c r="T43" s="2">
@@ -6724,8 +6724,8 @@
       <c r="Y43" s="2">
         <v>1</v>
       </c>
-      <c r="Z43" s="2">
-        <v>42</v>
+      <c r="Z43" s="3">
+        <v>5</v>
       </c>
       <c r="AB43" s="2">
         <v>14</v>
@@ -6777,7 +6777,7 @@
       <c r="N44" s="16">
         <v>0</v>
       </c>
-      <c r="S44" s="23">
+      <c r="S44" s="28">
         <v>2060430</v>
       </c>
       <c r="T44" s="2">
@@ -6798,8 +6798,8 @@
       <c r="Y44" s="2">
         <v>1</v>
       </c>
-      <c r="Z44" s="2">
-        <v>43</v>
+      <c r="Z44" s="3">
+        <v>6</v>
       </c>
       <c r="AB44" s="2">
         <v>14</v>
@@ -6814,77 +6814,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:33">
-      <c r="A45" s="13">
+    <row r="45" s="3" customFormat="1" spans="1:33">
+      <c r="A45" s="18">
         <v>206044</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="17">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="C45" s="20"/>
+      <c r="D45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
         <v>10</v>
       </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="16">
-        <v>0</v>
-      </c>
-      <c r="S45" s="23">
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="21">
+        <v>0</v>
+      </c>
+      <c r="S45" s="30">
         <v>2060440</v>
       </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>311044</v>
       </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>252</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>14</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="1">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>14</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="36">
         <v>1</v>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       <c r="N46" s="16">
         <v>0</v>
       </c>
-      <c r="S46" s="23">
+      <c r="S46" s="28">
         <v>2060450</v>
       </c>
       <c r="T46" s="2">
@@ -6946,8 +6946,8 @@
       <c r="Y46" s="2">
         <v>1</v>
       </c>
-      <c r="Z46" s="2">
-        <v>45</v>
+      <c r="Z46" s="3">
+        <v>8</v>
       </c>
       <c r="AB46" s="2">
         <v>14</v>
@@ -6999,7 +6999,7 @@
       <c r="N47" s="16">
         <v>0</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="28">
         <v>2060460</v>
       </c>
       <c r="T47" s="2">
@@ -7020,8 +7020,8 @@
       <c r="Y47" s="2">
         <v>1</v>
       </c>
-      <c r="Z47" s="2">
-        <v>46</v>
+      <c r="Z47" s="3">
+        <v>9</v>
       </c>
       <c r="AB47" s="2">
         <v>14</v>
@@ -7073,7 +7073,7 @@
       <c r="N48" s="16">
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="28">
         <v>2060470</v>
       </c>
       <c r="T48" s="2">
@@ -7094,8 +7094,8 @@
       <c r="Y48" s="2">
         <v>1</v>
       </c>
-      <c r="Z48" s="2">
-        <v>47</v>
+      <c r="Z48" s="3">
+        <v>10</v>
       </c>
       <c r="AB48" s="2">
         <v>14</v>
@@ -7147,7 +7147,7 @@
       <c r="N49" s="16">
         <v>0</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S49" s="28">
         <v>2060480</v>
       </c>
       <c r="T49" s="2">
@@ -7168,8 +7168,8 @@
       <c r="Y49" s="2">
         <v>1</v>
       </c>
-      <c r="Z49" s="2">
-        <v>48</v>
+      <c r="Z49" s="3">
+        <v>11</v>
       </c>
       <c r="AB49" s="2">
         <v>14</v>
@@ -7221,7 +7221,7 @@
       <c r="N50" s="16">
         <v>0</v>
       </c>
-      <c r="S50" s="23">
+      <c r="S50" s="28">
         <v>2060490</v>
       </c>
       <c r="T50" s="2">
@@ -7242,8 +7242,8 @@
       <c r="Y50" s="2">
         <v>1</v>
       </c>
-      <c r="Z50" s="2">
-        <v>49</v>
+      <c r="Z50" s="3">
+        <v>12</v>
       </c>
       <c r="AB50" s="2">
         <v>14</v>
@@ -7295,7 +7295,7 @@
       <c r="N51" s="16">
         <v>0</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="28">
         <v>2060500</v>
       </c>
       <c r="T51" s="2">
@@ -7316,8 +7316,8 @@
       <c r="Y51" s="2">
         <v>1</v>
       </c>
-      <c r="Z51" s="2">
-        <v>50</v>
+      <c r="Z51" s="3">
+        <v>13</v>
       </c>
       <c r="AB51" s="2">
         <v>14</v>
@@ -7369,7 +7369,7 @@
       <c r="N52" s="16">
         <v>0</v>
       </c>
-      <c r="S52" s="23">
+      <c r="S52" s="28">
         <v>2060510</v>
       </c>
       <c r="T52" s="2">
@@ -7390,8 +7390,8 @@
       <c r="Y52" s="2">
         <v>1</v>
       </c>
-      <c r="Z52" s="2">
-        <v>51</v>
+      <c r="Z52" s="3">
+        <v>14</v>
       </c>
       <c r="AB52" s="2">
         <v>14</v>
@@ -7443,7 +7443,7 @@
       <c r="N53" s="16">
         <v>0</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S53" s="28">
         <v>2060520</v>
       </c>
       <c r="T53" s="2">
@@ -7464,8 +7464,8 @@
       <c r="Y53" s="2">
         <v>1</v>
       </c>
-      <c r="Z53" s="2">
-        <v>52</v>
+      <c r="Z53" s="3">
+        <v>15</v>
       </c>
       <c r="AB53" s="2">
         <v>14</v>
@@ -7517,7 +7517,7 @@
       <c r="N54" s="16">
         <v>0</v>
       </c>
-      <c r="S54" s="23">
+      <c r="S54" s="28">
         <v>2060530</v>
       </c>
       <c r="T54" s="2">
@@ -7538,8 +7538,8 @@
       <c r="Y54" s="2">
         <v>1</v>
       </c>
-      <c r="Z54" s="2">
-        <v>53</v>
+      <c r="Z54" s="3">
+        <v>16</v>
       </c>
       <c r="AB54" s="2">
         <v>14</v>
@@ -7591,7 +7591,7 @@
       <c r="N55" s="16">
         <v>0</v>
       </c>
-      <c r="S55" s="23">
+      <c r="S55" s="28">
         <v>2060540</v>
       </c>
       <c r="T55" s="2">
@@ -7612,8 +7612,8 @@
       <c r="Y55" s="2">
         <v>1</v>
       </c>
-      <c r="Z55" s="2">
-        <v>54</v>
+      <c r="Z55" s="3">
+        <v>17</v>
       </c>
       <c r="AB55" s="2">
         <v>14</v>
@@ -7665,7 +7665,7 @@
       <c r="N56" s="16">
         <v>0</v>
       </c>
-      <c r="S56" s="23">
+      <c r="S56" s="28">
         <v>2060550</v>
       </c>
       <c r="T56" s="2">
@@ -7686,8 +7686,8 @@
       <c r="Y56" s="2">
         <v>1</v>
       </c>
-      <c r="Z56" s="2">
-        <v>55</v>
+      <c r="Z56" s="3">
+        <v>18</v>
       </c>
       <c r="AB56" s="2">
         <v>14</v>
@@ -7739,7 +7739,7 @@
       <c r="N57" s="16">
         <v>0</v>
       </c>
-      <c r="S57" s="23">
+      <c r="S57" s="28">
         <v>2060560</v>
       </c>
       <c r="T57" s="2">
@@ -7760,8 +7760,8 @@
       <c r="Y57" s="2">
         <v>1</v>
       </c>
-      <c r="Z57" s="2">
-        <v>56</v>
+      <c r="Z57" s="3">
+        <v>19</v>
       </c>
       <c r="AB57" s="2">
         <v>14</v>
@@ -7813,7 +7813,7 @@
       <c r="N58" s="16">
         <v>0</v>
       </c>
-      <c r="S58" s="23">
+      <c r="S58" s="28">
         <v>2060570</v>
       </c>
       <c r="T58" s="2">
@@ -7834,8 +7834,8 @@
       <c r="Y58" s="2">
         <v>1</v>
       </c>
-      <c r="Z58" s="2">
-        <v>57</v>
+      <c r="Z58" s="3">
+        <v>20</v>
       </c>
       <c r="AB58" s="2">
         <v>14</v>
@@ -7887,7 +7887,7 @@
       <c r="N59" s="16">
         <v>0</v>
       </c>
-      <c r="S59" s="23">
+      <c r="S59" s="28">
         <v>2060580</v>
       </c>
       <c r="T59" s="2">
@@ -7908,8 +7908,8 @@
       <c r="Y59" s="2">
         <v>1</v>
       </c>
-      <c r="Z59" s="2">
-        <v>58</v>
+      <c r="Z59" s="3">
+        <v>21</v>
       </c>
       <c r="AB59" s="2">
         <v>14</v>
@@ -7961,7 +7961,7 @@
       <c r="N60" s="16">
         <v>0</v>
       </c>
-      <c r="S60" s="23">
+      <c r="S60" s="28">
         <v>2060590</v>
       </c>
       <c r="T60" s="2">
@@ -7982,8 +7982,8 @@
       <c r="Y60" s="2">
         <v>1</v>
       </c>
-      <c r="Z60" s="2">
-        <v>59</v>
+      <c r="Z60" s="3">
+        <v>22</v>
       </c>
       <c r="AB60" s="2">
         <v>14</v>
@@ -8035,7 +8035,7 @@
       <c r="N61" s="16">
         <v>0</v>
       </c>
-      <c r="S61" s="23">
+      <c r="S61" s="28">
         <v>2060600</v>
       </c>
       <c r="T61" s="2">
@@ -8056,8 +8056,8 @@
       <c r="Y61" s="2">
         <v>1</v>
       </c>
-      <c r="Z61" s="2">
-        <v>60</v>
+      <c r="Z61" s="3">
+        <v>23</v>
       </c>
       <c r="AB61" s="2">
         <v>14</v>
@@ -8109,7 +8109,7 @@
       <c r="N62" s="16">
         <v>0</v>
       </c>
-      <c r="S62" s="23">
+      <c r="S62" s="28">
         <v>2060610</v>
       </c>
       <c r="T62" s="2">
@@ -8130,8 +8130,8 @@
       <c r="Y62" s="2">
         <v>1</v>
       </c>
-      <c r="Z62" s="2">
-        <v>61</v>
+      <c r="Z62" s="3">
+        <v>24</v>
       </c>
       <c r="AB62" s="2">
         <v>14</v>
@@ -8183,7 +8183,7 @@
       <c r="N63" s="16">
         <v>0</v>
       </c>
-      <c r="S63" s="23">
+      <c r="S63" s="28">
         <v>2060620</v>
       </c>
       <c r="T63" s="2">
@@ -8204,8 +8204,8 @@
       <c r="Y63" s="2">
         <v>1</v>
       </c>
-      <c r="Z63" s="2">
-        <v>62</v>
+      <c r="Z63" s="3">
+        <v>25</v>
       </c>
       <c r="AB63" s="2">
         <v>14</v>
@@ -8257,7 +8257,7 @@
       <c r="N64" s="16">
         <v>0</v>
       </c>
-      <c r="S64" s="23">
+      <c r="S64" s="28">
         <v>2060630</v>
       </c>
       <c r="T64" s="2">
@@ -8278,8 +8278,8 @@
       <c r="Y64" s="2">
         <v>1</v>
       </c>
-      <c r="Z64" s="2">
-        <v>63</v>
+      <c r="Z64" s="3">
+        <v>26</v>
       </c>
       <c r="AB64" s="2">
         <v>14</v>
@@ -8331,7 +8331,7 @@
       <c r="N65" s="16">
         <v>0</v>
       </c>
-      <c r="S65" s="23">
+      <c r="S65" s="28">
         <v>2060640</v>
       </c>
       <c r="T65" s="2">
@@ -8352,8 +8352,8 @@
       <c r="Y65" s="2">
         <v>1</v>
       </c>
-      <c r="Z65" s="2">
-        <v>64</v>
+      <c r="Z65" s="3">
+        <v>27</v>
       </c>
       <c r="AB65" s="2">
         <v>14</v>
@@ -8405,7 +8405,7 @@
       <c r="N66" s="16">
         <v>0</v>
       </c>
-      <c r="S66" s="23">
+      <c r="S66" s="28">
         <v>2060650</v>
       </c>
       <c r="T66" s="2">
@@ -8426,8 +8426,8 @@
       <c r="Y66" s="2">
         <v>1</v>
       </c>
-      <c r="Z66" s="2">
-        <v>65</v>
+      <c r="Z66" s="3">
+        <v>28</v>
       </c>
       <c r="AB66" s="2">
         <v>14</v>
@@ -8479,7 +8479,7 @@
       <c r="N67" s="16">
         <v>0</v>
       </c>
-      <c r="S67" s="23">
+      <c r="S67" s="28">
         <v>2060660</v>
       </c>
       <c r="T67" s="2">
@@ -8500,8 +8500,8 @@
       <c r="Y67" s="2">
         <v>1</v>
       </c>
-      <c r="Z67" s="2">
-        <v>66</v>
+      <c r="Z67" s="3">
+        <v>29</v>
       </c>
       <c r="AB67" s="2">
         <v>14</v>
@@ -8553,7 +8553,7 @@
       <c r="N68" s="16">
         <v>0</v>
       </c>
-      <c r="S68" s="23">
+      <c r="S68" s="28">
         <v>2060670</v>
       </c>
       <c r="T68" s="2">
@@ -8574,8 +8574,8 @@
       <c r="Y68" s="2">
         <v>1</v>
       </c>
-      <c r="Z68" s="2">
-        <v>67</v>
+      <c r="Z68" s="3">
+        <v>30</v>
       </c>
       <c r="AB68" s="2">
         <v>14</v>
@@ -8627,7 +8627,7 @@
       <c r="N69" s="16">
         <v>0</v>
       </c>
-      <c r="S69" s="23">
+      <c r="S69" s="28">
         <v>2060680</v>
       </c>
       <c r="T69" s="2">
@@ -8648,8 +8648,8 @@
       <c r="Y69" s="2">
         <v>1</v>
       </c>
-      <c r="Z69" s="2">
-        <v>68</v>
+      <c r="Z69" s="3">
+        <v>31</v>
       </c>
       <c r="AB69" s="2">
         <v>14</v>
@@ -8701,7 +8701,7 @@
       <c r="N70" s="16">
         <v>0</v>
       </c>
-      <c r="S70" s="23">
+      <c r="S70" s="28">
         <v>2060690</v>
       </c>
       <c r="T70" s="2">
@@ -8722,8 +8722,8 @@
       <c r="Y70" s="2">
         <v>1</v>
       </c>
-      <c r="Z70" s="2">
-        <v>69</v>
+      <c r="Z70" s="3">
+        <v>32</v>
       </c>
       <c r="AB70" s="2">
         <v>14</v>
@@ -8775,7 +8775,7 @@
       <c r="N71" s="16">
         <v>0</v>
       </c>
-      <c r="S71" s="23">
+      <c r="S71" s="28">
         <v>2060700</v>
       </c>
       <c r="T71" s="2">
@@ -8796,8 +8796,8 @@
       <c r="Y71" s="2">
         <v>1</v>
       </c>
-      <c r="Z71" s="2">
-        <v>70</v>
+      <c r="Z71" s="3">
+        <v>33</v>
       </c>
       <c r="AB71" s="2">
         <v>14</v>
@@ -8849,7 +8849,7 @@
       <c r="N72" s="16">
         <v>0</v>
       </c>
-      <c r="S72" s="23">
+      <c r="S72" s="28">
         <v>2060710</v>
       </c>
       <c r="T72" s="2">
@@ -8870,8 +8870,8 @@
       <c r="Y72" s="2">
         <v>1</v>
       </c>
-      <c r="Z72" s="2">
-        <v>71</v>
+      <c r="Z72" s="3">
+        <v>34</v>
       </c>
       <c r="AB72" s="2">
         <v>14</v>
@@ -8923,7 +8923,7 @@
       <c r="N73" s="16">
         <v>0</v>
       </c>
-      <c r="S73" s="23">
+      <c r="S73" s="28">
         <v>2060720</v>
       </c>
       <c r="T73" s="2">
@@ -8944,8 +8944,8 @@
       <c r="Y73" s="2">
         <v>1</v>
       </c>
-      <c r="Z73" s="2">
-        <v>72</v>
+      <c r="Z73" s="3">
+        <v>35</v>
       </c>
       <c r="AB73" s="2">
         <v>14</v>
@@ -8997,7 +8997,7 @@
       <c r="N74" s="16">
         <v>0</v>
       </c>
-      <c r="S74" s="23">
+      <c r="S74" s="28">
         <v>2060730</v>
       </c>
       <c r="T74" s="2">
@@ -9018,8 +9018,8 @@
       <c r="Y74" s="2">
         <v>1</v>
       </c>
-      <c r="Z74" s="2">
-        <v>73</v>
+      <c r="Z74" s="3">
+        <v>36</v>
       </c>
       <c r="AB74" s="2">
         <v>14</v>
@@ -9071,7 +9071,7 @@
       <c r="N75" s="16">
         <v>0</v>
       </c>
-      <c r="S75" s="23">
+      <c r="S75" s="28">
         <v>2060740</v>
       </c>
       <c r="T75" s="2">
@@ -9092,8 +9092,8 @@
       <c r="Y75" s="2">
         <v>1</v>
       </c>
-      <c r="Z75" s="2">
-        <v>74</v>
+      <c r="Z75" s="3">
+        <v>37</v>
       </c>
       <c r="AB75" s="2">
         <v>14</v>
@@ -9109,28 +9109,28 @@
       </c>
     </row>
     <row r="76" s="3" customFormat="1" spans="1:33">
-      <c r="A76" s="30">
+      <c r="A76" s="18">
         <v>206075</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="34">
-        <v>0</v>
-      </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="33" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K76" s="3">
@@ -9142,10 +9142,10 @@
       <c r="M76" s="3">
         <v>1</v>
       </c>
-      <c r="N76" s="33">
-        <v>0</v>
-      </c>
-      <c r="S76" s="45" t="s">
+      <c r="N76" s="21">
+        <v>0</v>
+      </c>
+      <c r="S76" s="30" t="s">
         <v>114</v>
       </c>
       <c r="T76" s="3">
@@ -9178,33 +9178,33 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-      <c r="AG76" s="47">
+      <c r="AG76" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" spans="1:33">
-      <c r="A77" s="30">
+      <c r="A77" s="18">
         <v>206076</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" s="34">
-        <v>0</v>
-      </c>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="33" t="s">
+      <c r="C77" s="20"/>
+      <c r="D77" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="22">
+        <v>0</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K77" s="3">
@@ -9216,10 +9216,10 @@
       <c r="M77" s="3">
         <v>1</v>
       </c>
-      <c r="N77" s="33">
-        <v>0</v>
-      </c>
-      <c r="S77" s="45" t="s">
+      <c r="N77" s="21">
+        <v>0</v>
+      </c>
+      <c r="S77" s="30" t="s">
         <v>116</v>
       </c>
       <c r="T77" s="3">
@@ -9252,33 +9252,33 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-      <c r="AG77" s="47">
+      <c r="AG77" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="78" s="3" customFormat="1" spans="1:33">
-      <c r="A78" s="30">
+      <c r="A78" s="18">
         <v>206077</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="34">
-        <v>0</v>
-      </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33" t="s">
+      <c r="C78" s="20"/>
+      <c r="D78" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="22">
+        <v>0</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K78" s="3">
@@ -9290,10 +9290,10 @@
       <c r="M78" s="3">
         <v>1</v>
       </c>
-      <c r="N78" s="33">
-        <v>0</v>
-      </c>
-      <c r="S78" s="45" t="s">
+      <c r="N78" s="21">
+        <v>0</v>
+      </c>
+      <c r="S78" s="30" t="s">
         <v>118</v>
       </c>
       <c r="T78" s="3">
@@ -9326,33 +9326,33 @@
       <c r="AD78" s="3">
         <v>0</v>
       </c>
-      <c r="AG78" s="47">
+      <c r="AG78" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:33">
-      <c r="A79" s="30">
+      <c r="A79" s="18">
         <v>206078</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="34">
-        <v>0</v>
-      </c>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="33" t="s">
+      <c r="C79" s="20"/>
+      <c r="D79" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="22">
+        <v>0</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K79" s="3">
@@ -9364,10 +9364,10 @@
       <c r="M79" s="3">
         <v>1</v>
       </c>
-      <c r="N79" s="33">
-        <v>0</v>
-      </c>
-      <c r="S79" s="45" t="s">
+      <c r="N79" s="21">
+        <v>0</v>
+      </c>
+      <c r="S79" s="30" t="s">
         <v>120</v>
       </c>
       <c r="T79" s="3">
@@ -9400,33 +9400,33 @@
       <c r="AD79" s="3">
         <v>0</v>
       </c>
-      <c r="AG79" s="47">
+      <c r="AG79" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:33">
-      <c r="A80" s="30">
+      <c r="A80" s="18">
         <v>206079</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="34">
-        <v>0</v>
-      </c>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="33" t="s">
+      <c r="C80" s="20"/>
+      <c r="D80" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K80" s="3">
@@ -9438,10 +9438,10 @@
       <c r="M80" s="3">
         <v>1</v>
       </c>
-      <c r="N80" s="33">
-        <v>0</v>
-      </c>
-      <c r="S80" s="45" t="s">
+      <c r="N80" s="21">
+        <v>0</v>
+      </c>
+      <c r="S80" s="30" t="s">
         <v>122</v>
       </c>
       <c r="T80" s="3">
@@ -9474,33 +9474,33 @@
       <c r="AD80" s="3">
         <v>0</v>
       </c>
-      <c r="AG80" s="47">
+      <c r="AG80" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:33">
-      <c r="A81" s="30">
+      <c r="A81" s="18">
         <v>206080</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" s="34">
-        <v>0</v>
-      </c>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="33" t="s">
+      <c r="C81" s="20"/>
+      <c r="D81" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K81" s="3">
@@ -9512,10 +9512,10 @@
       <c r="M81" s="3">
         <v>1</v>
       </c>
-      <c r="N81" s="33">
-        <v>0</v>
-      </c>
-      <c r="S81" s="45" t="s">
+      <c r="N81" s="21">
+        <v>0</v>
+      </c>
+      <c r="S81" s="30" t="s">
         <v>124</v>
       </c>
       <c r="T81" s="3">
@@ -9548,33 +9548,33 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-      <c r="AG81" s="47">
+      <c r="AG81" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:33">
-      <c r="A82" s="30">
+      <c r="A82" s="18">
         <v>206081</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="34">
-        <v>0</v>
-      </c>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="33" t="s">
+      <c r="C82" s="20"/>
+      <c r="D82" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K82" s="3">
@@ -9586,10 +9586,10 @@
       <c r="M82" s="3">
         <v>1</v>
       </c>
-      <c r="N82" s="33">
-        <v>0</v>
-      </c>
-      <c r="S82" s="45" t="s">
+      <c r="N82" s="21">
+        <v>0</v>
+      </c>
+      <c r="S82" s="30" t="s">
         <v>126</v>
       </c>
       <c r="T82" s="3">
@@ -9611,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="Z82" s="3">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="AB82" s="3">
         <v>14</v>
@@ -9622,33 +9622,33 @@
       <c r="AD82" s="3">
         <v>0</v>
       </c>
-      <c r="AG82" s="47">
+      <c r="AG82" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" spans="1:33">
-      <c r="A83" s="30">
+      <c r="A83" s="18">
         <v>206082</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" s="34">
-        <v>0</v>
-      </c>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="33" t="s">
+      <c r="C83" s="20"/>
+      <c r="D83" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K83" s="3">
@@ -9660,10 +9660,10 @@
       <c r="M83" s="3">
         <v>1</v>
       </c>
-      <c r="N83" s="33">
-        <v>0</v>
-      </c>
-      <c r="S83" s="45" t="s">
+      <c r="N83" s="21">
+        <v>0</v>
+      </c>
+      <c r="S83" s="30" t="s">
         <v>128</v>
       </c>
       <c r="T83" s="3">
@@ -9696,33 +9696,33 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-      <c r="AG83" s="47">
+      <c r="AG83" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" spans="1:33">
-      <c r="A84" s="30">
+      <c r="A84" s="18">
         <v>206083</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G84" s="34">
-        <v>0</v>
-      </c>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33" t="s">
+      <c r="C84" s="20"/>
+      <c r="D84" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K84" s="3">
@@ -9734,10 +9734,10 @@
       <c r="M84" s="3">
         <v>1</v>
       </c>
-      <c r="N84" s="33">
-        <v>0</v>
-      </c>
-      <c r="S84" s="45" t="s">
+      <c r="N84" s="21">
+        <v>0</v>
+      </c>
+      <c r="S84" s="30" t="s">
         <v>130</v>
       </c>
       <c r="T84" s="3">
@@ -9770,33 +9770,33 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-      <c r="AG84" s="47">
+      <c r="AG84" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" spans="1:33">
-      <c r="A85" s="30">
+      <c r="A85" s="18">
         <v>206084</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" s="34">
-        <v>0</v>
-      </c>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="33" t="s">
+      <c r="C85" s="20"/>
+      <c r="D85" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K85" s="3">
@@ -9808,10 +9808,10 @@
       <c r="M85" s="3">
         <v>1</v>
       </c>
-      <c r="N85" s="33">
-        <v>0</v>
-      </c>
-      <c r="S85" s="45" t="s">
+      <c r="N85" s="21">
+        <v>0</v>
+      </c>
+      <c r="S85" s="30" t="s">
         <v>132</v>
       </c>
       <c r="T85" s="3">
@@ -9844,33 +9844,33 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-      <c r="AG85" s="47">
+      <c r="AG85" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1" spans="1:33">
-      <c r="A86" s="30">
+      <c r="A86" s="18">
         <v>206085</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G86" s="34">
-        <v>0</v>
-      </c>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="33" t="s">
+      <c r="C86" s="20"/>
+      <c r="D86" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K86" s="3">
@@ -9882,10 +9882,10 @@
       <c r="M86" s="3">
         <v>1</v>
       </c>
-      <c r="N86" s="33">
-        <v>0</v>
-      </c>
-      <c r="S86" s="45" t="s">
+      <c r="N86" s="21">
+        <v>0</v>
+      </c>
+      <c r="S86" s="30" t="s">
         <v>134</v>
       </c>
       <c r="T86" s="3">
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="Z86" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB86" s="3">
         <v>14</v>
@@ -9918,33 +9918,33 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-      <c r="AG86" s="47">
+      <c r="AG86" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1" spans="1:33">
-      <c r="A87" s="30">
+      <c r="A87" s="18">
         <v>206086</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" s="34">
-        <v>0</v>
-      </c>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="33" t="s">
+      <c r="C87" s="20"/>
+      <c r="D87" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K87" s="3">
@@ -9956,10 +9956,10 @@
       <c r="M87" s="3">
         <v>1</v>
       </c>
-      <c r="N87" s="33">
-        <v>0</v>
-      </c>
-      <c r="S87" s="45" t="s">
+      <c r="N87" s="21">
+        <v>0</v>
+      </c>
+      <c r="S87" s="30" t="s">
         <v>136</v>
       </c>
       <c r="T87" s="3">
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="Z87" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AB87" s="3">
         <v>14</v>
@@ -9992,33 +9992,33 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-      <c r="AG87" s="47">
+      <c r="AG87" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1" spans="1:33">
-      <c r="A88" s="30">
+      <c r="A88" s="18">
         <v>206087</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="34">
-        <v>0</v>
-      </c>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="33" t="s">
+      <c r="C88" s="20"/>
+      <c r="D88" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K88" s="3">
@@ -10030,10 +10030,10 @@
       <c r="M88" s="3">
         <v>1</v>
       </c>
-      <c r="N88" s="33">
-        <v>0</v>
-      </c>
-      <c r="S88" s="45" t="s">
+      <c r="N88" s="21">
+        <v>0</v>
+      </c>
+      <c r="S88" s="30" t="s">
         <v>138</v>
       </c>
       <c r="T88" s="3">
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="Z88" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB88" s="3">
         <v>14</v>
@@ -10066,33 +10066,33 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-      <c r="AG88" s="47">
+      <c r="AG88" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1" spans="1:33">
-      <c r="A89" s="30">
+      <c r="A89" s="18">
         <v>206088</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="34">
-        <v>0</v>
-      </c>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="33" t="s">
+      <c r="C89" s="20"/>
+      <c r="D89" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K89" s="3">
@@ -10104,10 +10104,10 @@
       <c r="M89" s="3">
         <v>1</v>
       </c>
-      <c r="N89" s="33">
-        <v>0</v>
-      </c>
-      <c r="S89" s="45" t="s">
+      <c r="N89" s="21">
+        <v>0</v>
+      </c>
+      <c r="S89" s="30" t="s">
         <v>140</v>
       </c>
       <c r="T89" s="3">
@@ -10129,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="Z89" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB89" s="3">
         <v>14</v>
@@ -10140,33 +10140,33 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-      <c r="AG89" s="47">
+      <c r="AG89" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="1" spans="1:33">
-      <c r="A90" s="30">
+      <c r="A90" s="18">
         <v>206089</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" s="34">
-        <v>0</v>
-      </c>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="33" t="s">
+      <c r="C90" s="20"/>
+      <c r="D90" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" s="22">
+        <v>0</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K90" s="3">
@@ -10178,10 +10178,10 @@
       <c r="M90" s="3">
         <v>1</v>
       </c>
-      <c r="N90" s="33">
-        <v>0</v>
-      </c>
-      <c r="S90" s="45" t="s">
+      <c r="N90" s="21">
+        <v>0</v>
+      </c>
+      <c r="S90" s="30" t="s">
         <v>142</v>
       </c>
       <c r="T90" s="3">
@@ -10203,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="Z90" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB90" s="3">
         <v>14</v>
@@ -10214,33 +10214,33 @@
       <c r="AD90" s="3">
         <v>0</v>
       </c>
-      <c r="AG90" s="47">
+      <c r="AG90" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1" spans="1:33">
-      <c r="A91" s="30">
+      <c r="A91" s="18">
         <v>206090</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G91" s="34">
-        <v>0</v>
-      </c>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="33" t="s">
+      <c r="C91" s="20"/>
+      <c r="D91" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K91" s="3">
@@ -10252,10 +10252,10 @@
       <c r="M91" s="3">
         <v>1</v>
       </c>
-      <c r="N91" s="33">
-        <v>0</v>
-      </c>
-      <c r="S91" s="45" t="s">
+      <c r="N91" s="21">
+        <v>0</v>
+      </c>
+      <c r="S91" s="30" t="s">
         <v>144</v>
       </c>
       <c r="T91" s="3">
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="Z91" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB91" s="3">
         <v>14</v>
@@ -10288,33 +10288,33 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-      <c r="AG91" s="47">
+      <c r="AG91" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="1" spans="1:33">
-      <c r="A92" s="30">
+      <c r="A92" s="18">
         <v>206091</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="34">
-        <v>0</v>
-      </c>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="33" t="s">
+      <c r="C92" s="20"/>
+      <c r="D92" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="22">
+        <v>0</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K92" s="3">
@@ -10326,10 +10326,10 @@
       <c r="M92" s="3">
         <v>1</v>
       </c>
-      <c r="N92" s="33">
-        <v>0</v>
-      </c>
-      <c r="S92" s="45" t="s">
+      <c r="N92" s="21">
+        <v>0</v>
+      </c>
+      <c r="S92" s="30" t="s">
         <v>146</v>
       </c>
       <c r="T92" s="3">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="Z92" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB92" s="3">
         <v>14</v>
@@ -10362,33 +10362,33 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-      <c r="AG92" s="47">
+      <c r="AG92" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1" spans="1:33">
-      <c r="A93" s="30">
+      <c r="A93" s="18">
         <v>206092</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="34">
-        <v>0</v>
-      </c>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="33" t="s">
+      <c r="C93" s="20"/>
+      <c r="D93" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K93" s="3">
@@ -10400,10 +10400,10 @@
       <c r="M93" s="3">
         <v>1</v>
       </c>
-      <c r="N93" s="33">
-        <v>0</v>
-      </c>
-      <c r="S93" s="45" t="s">
+      <c r="N93" s="21">
+        <v>0</v>
+      </c>
+      <c r="S93" s="30" t="s">
         <v>148</v>
       </c>
       <c r="T93" s="3">
@@ -10425,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="Z93" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB93" s="3">
         <v>14</v>
@@ -10436,33 +10436,33 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-      <c r="AG93" s="47">
+      <c r="AG93" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1" spans="1:33">
-      <c r="A94" s="30">
+      <c r="A94" s="18">
         <v>206093</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="34">
-        <v>0</v>
-      </c>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="33" t="s">
+      <c r="C94" s="20"/>
+      <c r="D94" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K94" s="3">
@@ -10474,10 +10474,10 @@
       <c r="M94" s="3">
         <v>1</v>
       </c>
-      <c r="N94" s="33">
-        <v>0</v>
-      </c>
-      <c r="S94" s="45" t="s">
+      <c r="N94" s="21">
+        <v>0</v>
+      </c>
+      <c r="S94" s="30" t="s">
         <v>150</v>
       </c>
       <c r="T94" s="3">
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="Z94" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AB94" s="3">
         <v>14</v>
@@ -10510,33 +10510,33 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-      <c r="AG94" s="47">
+      <c r="AG94" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1" spans="1:33">
-      <c r="A95" s="30">
+      <c r="A95" s="18">
         <v>206094</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G95" s="34">
-        <v>0</v>
-      </c>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="33" t="s">
+      <c r="C95" s="20"/>
+      <c r="D95" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K95" s="3">
@@ -10548,10 +10548,10 @@
       <c r="M95" s="3">
         <v>1</v>
       </c>
-      <c r="N95" s="33">
-        <v>0</v>
-      </c>
-      <c r="S95" s="45" t="s">
+      <c r="N95" s="21">
+        <v>0</v>
+      </c>
+      <c r="S95" s="30" t="s">
         <v>152</v>
       </c>
       <c r="T95" s="3">
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="Z95" s="3">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AB95" s="3">
         <v>14</v>
@@ -10584,33 +10584,33 @@
       <c r="AD95" s="3">
         <v>0</v>
       </c>
-      <c r="AG95" s="47">
+      <c r="AG95" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1" spans="1:33">
-      <c r="A96" s="30">
+      <c r="A96" s="18">
         <v>206095</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G96" s="34">
-        <v>0</v>
-      </c>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="33" t="s">
+      <c r="C96" s="20"/>
+      <c r="D96" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K96" s="3">
@@ -10622,10 +10622,10 @@
       <c r="M96" s="3">
         <v>1</v>
       </c>
-      <c r="N96" s="33">
-        <v>0</v>
-      </c>
-      <c r="S96" s="45" t="s">
+      <c r="N96" s="21">
+        <v>0</v>
+      </c>
+      <c r="S96" s="30" t="s">
         <v>154</v>
       </c>
       <c r="T96" s="3">
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="Z96" s="3">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AB96" s="3">
         <v>14</v>
@@ -10658,33 +10658,33 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-      <c r="AG96" s="47">
+      <c r="AG96" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1" spans="1:33">
-      <c r="A97" s="30">
+      <c r="A97" s="18">
         <v>206096</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G97" s="34">
-        <v>0</v>
-      </c>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="33" t="s">
+      <c r="C97" s="20"/>
+      <c r="D97" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K97" s="3">
@@ -10696,10 +10696,10 @@
       <c r="M97" s="3">
         <v>1</v>
       </c>
-      <c r="N97" s="33">
-        <v>0</v>
-      </c>
-      <c r="S97" s="45" t="s">
+      <c r="N97" s="21">
+        <v>0</v>
+      </c>
+      <c r="S97" s="30" t="s">
         <v>156</v>
       </c>
       <c r="T97" s="3">
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="Z97" s="3">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB97" s="3">
         <v>14</v>
@@ -10732,33 +10732,33 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-      <c r="AG97" s="47">
+      <c r="AG97" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="1" spans="1:33">
-      <c r="A98" s="30">
+      <c r="A98" s="18">
         <v>206097</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" s="34">
-        <v>0</v>
-      </c>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="33" t="s">
+      <c r="C98" s="20"/>
+      <c r="D98" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K98" s="3">
@@ -10770,10 +10770,10 @@
       <c r="M98" s="3">
         <v>1</v>
       </c>
-      <c r="N98" s="33">
-        <v>0</v>
-      </c>
-      <c r="S98" s="45" t="s">
+      <c r="N98" s="21">
+        <v>0</v>
+      </c>
+      <c r="S98" s="30" t="s">
         <v>158</v>
       </c>
       <c r="T98" s="3">
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="Z98" s="3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB98" s="3">
         <v>14</v>
@@ -10806,33 +10806,33 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-      <c r="AG98" s="47">
+      <c r="AG98" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1" spans="1:33">
-      <c r="A99" s="30">
+      <c r="A99" s="18">
         <v>206098</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" s="34">
-        <v>0</v>
-      </c>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="33" t="s">
+      <c r="C99" s="20"/>
+      <c r="D99" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K99" s="3">
@@ -10844,10 +10844,10 @@
       <c r="M99" s="3">
         <v>1</v>
       </c>
-      <c r="N99" s="33">
-        <v>0</v>
-      </c>
-      <c r="S99" s="45" t="s">
+      <c r="N99" s="21">
+        <v>0</v>
+      </c>
+      <c r="S99" s="30" t="s">
         <v>160</v>
       </c>
       <c r="T99" s="3">
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="Z99" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AB99" s="3">
         <v>14</v>
@@ -10880,33 +10880,33 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-      <c r="AG99" s="47">
+      <c r="AG99" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" spans="1:33">
-      <c r="A100" s="30">
+      <c r="A100" s="18">
         <v>206099</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="34">
-        <v>0</v>
-      </c>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="33" t="s">
+      <c r="C100" s="20"/>
+      <c r="D100" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K100" s="3">
@@ -10918,10 +10918,10 @@
       <c r="M100" s="3">
         <v>1</v>
       </c>
-      <c r="N100" s="33">
-        <v>0</v>
-      </c>
-      <c r="S100" s="45" t="s">
+      <c r="N100" s="21">
+        <v>0</v>
+      </c>
+      <c r="S100" s="30" t="s">
         <v>162</v>
       </c>
       <c r="T100" s="3">
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="Z100" s="3">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB100" s="3">
         <v>14</v>
@@ -10954,33 +10954,33 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-      <c r="AG100" s="47">
+      <c r="AG100" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" spans="1:33">
-      <c r="A101" s="30">
+      <c r="A101" s="18">
         <v>206100</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" s="34">
-        <v>0</v>
-      </c>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="33" t="s">
+      <c r="C101" s="20"/>
+      <c r="D101" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K101" s="3">
@@ -10992,10 +10992,10 @@
       <c r="M101" s="3">
         <v>1</v>
       </c>
-      <c r="N101" s="33">
-        <v>0</v>
-      </c>
-      <c r="S101" s="45" t="s">
+      <c r="N101" s="21">
+        <v>0</v>
+      </c>
+      <c r="S101" s="30" t="s">
         <v>164</v>
       </c>
       <c r="T101" s="3">
@@ -11017,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="Z101" s="3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AB101" s="3">
         <v>14</v>
@@ -11028,33 +11028,33 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-      <c r="AG101" s="47">
+      <c r="AG101" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" spans="1:33">
-      <c r="A102" s="30">
+      <c r="A102" s="18">
         <v>206101</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" s="34">
-        <v>0</v>
-      </c>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="33" t="s">
+      <c r="C102" s="20"/>
+      <c r="D102" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K102" s="3">
@@ -11066,10 +11066,10 @@
       <c r="M102" s="3">
         <v>1</v>
       </c>
-      <c r="N102" s="33">
-        <v>0</v>
-      </c>
-      <c r="S102" s="45" t="s">
+      <c r="N102" s="21">
+        <v>0</v>
+      </c>
+      <c r="S102" s="30" t="s">
         <v>166</v>
       </c>
       <c r="T102" s="3">
@@ -11091,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="Z102" s="3">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AB102" s="3">
         <v>14</v>
@@ -11102,33 +11102,33 @@
       <c r="AD102" s="3">
         <v>0</v>
       </c>
-      <c r="AG102" s="47">
+      <c r="AG102" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" spans="1:33">
-      <c r="A103" s="30">
+      <c r="A103" s="18">
         <v>206102</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="34">
-        <v>0</v>
-      </c>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33" t="s">
+      <c r="C103" s="20"/>
+      <c r="D103" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K103" s="3">
@@ -11140,10 +11140,10 @@
       <c r="M103" s="3">
         <v>1</v>
       </c>
-      <c r="N103" s="33">
-        <v>0</v>
-      </c>
-      <c r="S103" s="45" t="s">
+      <c r="N103" s="21">
+        <v>0</v>
+      </c>
+      <c r="S103" s="30" t="s">
         <v>168</v>
       </c>
       <c r="T103" s="3">
@@ -11165,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="Z103" s="3">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AB103" s="3">
         <v>14</v>
@@ -11176,33 +11176,33 @@
       <c r="AD103" s="3">
         <v>0</v>
       </c>
-      <c r="AG103" s="47">
+      <c r="AG103" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" spans="1:33">
-      <c r="A104" s="30">
+      <c r="A104" s="18">
         <v>206103</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="D104" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" s="34">
-        <v>0</v>
-      </c>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="33" t="s">
+      <c r="C104" s="20"/>
+      <c r="D104" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K104" s="3">
@@ -11214,10 +11214,10 @@
       <c r="M104" s="3">
         <v>1</v>
       </c>
-      <c r="N104" s="33">
-        <v>0</v>
-      </c>
-      <c r="S104" s="45" t="s">
+      <c r="N104" s="21">
+        <v>0</v>
+      </c>
+      <c r="S104" s="30" t="s">
         <v>170</v>
       </c>
       <c r="T104" s="3">
@@ -11239,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="Z104" s="3">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AB104" s="3">
         <v>14</v>
@@ -11250,7 +11250,7 @@
       <c r="AD104" s="3">
         <v>0</v>
       </c>
-      <c r="AG104" s="47">
+      <c r="AG104" s="36">
         <v>1</v>
       </c>
     </row>
@@ -11293,10 +11293,10 @@
       <c r="N105" s="16">
         <v>0</v>
       </c>
-      <c r="P105" s="42">
+      <c r="P105" s="44">
         <v>40</v>
       </c>
-      <c r="S105" s="23">
+      <c r="S105" s="28">
         <v>2070010</v>
       </c>
       <c r="T105" s="2">
@@ -11326,7 +11326,7 @@
       <c r="AC105" s="2">
         <v>1</v>
       </c>
-      <c r="AD105" s="40">
+      <c r="AD105" s="42">
         <v>0</v>
       </c>
       <c r="AG105" s="1">
@@ -11375,10 +11375,10 @@
       <c r="N106" s="16">
         <v>0</v>
       </c>
-      <c r="P106" s="42">
+      <c r="P106" s="44">
         <v>40</v>
       </c>
-      <c r="S106" s="23">
+      <c r="S106" s="28">
         <v>2070020</v>
       </c>
       <c r="T106" s="2">
@@ -11457,10 +11457,10 @@
       <c r="N107" s="16">
         <v>0</v>
       </c>
-      <c r="P107" s="42">
+      <c r="P107" s="44">
         <v>40</v>
       </c>
-      <c r="S107" s="23">
+      <c r="S107" s="28">
         <v>2070030</v>
       </c>
       <c r="T107" s="2">
@@ -11539,10 +11539,10 @@
       <c r="N108" s="16">
         <v>0</v>
       </c>
-      <c r="P108" s="42">
+      <c r="P108" s="44">
         <v>40</v>
       </c>
-      <c r="S108" s="23">
+      <c r="S108" s="28">
         <v>2070040</v>
       </c>
       <c r="T108" s="2">
@@ -11623,10 +11623,10 @@
       <c r="N109" s="16">
         <v>0</v>
       </c>
-      <c r="P109" s="42">
+      <c r="P109" s="44">
         <v>50</v>
       </c>
-      <c r="S109" s="23" t="s">
+      <c r="S109" s="28" t="s">
         <v>177</v>
       </c>
       <c r="T109" s="2" t="s">
@@ -11707,10 +11707,10 @@
       <c r="N110" s="16">
         <v>0</v>
       </c>
-      <c r="P110" s="42">
+      <c r="P110" s="44">
         <v>50</v>
       </c>
-      <c r="S110" s="23" t="s">
+      <c r="S110" s="28" t="s">
         <v>180</v>
       </c>
       <c r="T110" s="2" t="s">
@@ -11791,10 +11791,10 @@
       <c r="N111" s="16">
         <v>0</v>
       </c>
-      <c r="P111" s="42">
+      <c r="P111" s="44">
         <v>50</v>
       </c>
-      <c r="S111" s="23" t="s">
+      <c r="S111" s="28" t="s">
         <v>182</v>
       </c>
       <c r="T111" s="2" t="s">
@@ -11875,10 +11875,10 @@
       <c r="N112" s="16">
         <v>0</v>
       </c>
-      <c r="P112" s="42">
+      <c r="P112" s="44">
         <v>50</v>
       </c>
-      <c r="S112" s="23" t="s">
+      <c r="S112" s="28" t="s">
         <v>184</v>
       </c>
       <c r="T112" s="2" t="s">
@@ -11919,30 +11919,30 @@
       </c>
     </row>
     <row r="113" s="3" customFormat="1" spans="1:34">
-      <c r="A113" s="30">
+      <c r="A113" s="18">
         <v>207009</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G113" s="34">
+      <c r="C113" s="20"/>
+      <c r="D113" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G113" s="22">
         <v>3</v>
       </c>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34">
-        <v>1</v>
-      </c>
-      <c r="J113" s="33" t="s">
+      <c r="H113" s="22"/>
+      <c r="I113" s="22">
+        <v>1</v>
+      </c>
+      <c r="J113" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K113" s="3">
@@ -11954,13 +11954,13 @@
       <c r="M113" s="3">
         <v>480</v>
       </c>
-      <c r="N113" s="33">
-        <v>0</v>
-      </c>
-      <c r="P113" s="43">
+      <c r="N113" s="21">
+        <v>0</v>
+      </c>
+      <c r="P113" s="45">
         <v>200</v>
       </c>
-      <c r="S113" s="46" t="s">
+      <c r="S113" s="47" t="s">
         <v>186</v>
       </c>
       <c r="T113" s="3">
@@ -11993,38 +11993,38 @@
       <c r="AD113" s="3">
         <v>0</v>
       </c>
-      <c r="AG113" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH113" s="32">
+      <c r="AG113" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH113" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" spans="1:34">
-      <c r="A114" s="30">
+      <c r="A114" s="18">
         <v>207010</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G114" s="34">
-        <v>0</v>
-      </c>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34">
-        <v>1</v>
-      </c>
-      <c r="J114" s="33" t="s">
+      <c r="C114" s="20"/>
+      <c r="D114" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G114" s="22">
+        <v>0</v>
+      </c>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22">
+        <v>1</v>
+      </c>
+      <c r="J114" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K114" s="3">
@@ -12036,13 +12036,13 @@
       <c r="M114" s="3">
         <v>480</v>
       </c>
-      <c r="N114" s="33">
-        <v>0</v>
-      </c>
-      <c r="P114" s="43">
+      <c r="N114" s="21">
+        <v>0</v>
+      </c>
+      <c r="P114" s="45">
         <v>60</v>
       </c>
-      <c r="S114" s="45" t="s">
+      <c r="S114" s="30" t="s">
         <v>188</v>
       </c>
       <c r="T114" s="3" t="s">
@@ -12075,38 +12075,38 @@
       <c r="AD114" s="3">
         <v>0</v>
       </c>
-      <c r="AG114" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH114" s="32">
+      <c r="AG114" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH114" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" spans="1:34">
-      <c r="A115" s="30">
+      <c r="A115" s="18">
         <v>207011</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G115" s="34">
-        <v>0</v>
-      </c>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34">
-        <v>1</v>
-      </c>
-      <c r="J115" s="33" t="s">
+      <c r="C115" s="20"/>
+      <c r="D115" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22">
+        <v>1</v>
+      </c>
+      <c r="J115" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K115" s="3">
@@ -12118,16 +12118,16 @@
       <c r="M115" s="3">
         <v>480</v>
       </c>
-      <c r="N115" s="33">
-        <v>0</v>
-      </c>
-      <c r="P115" s="43">
+      <c r="N115" s="21">
+        <v>0</v>
+      </c>
+      <c r="P115" s="45">
         <v>200</v>
       </c>
-      <c r="S115" s="46" t="s">
+      <c r="S115" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="T115" s="47">
+      <c r="T115" s="36">
         <v>0</v>
       </c>
       <c r="U115" s="3">
@@ -12157,38 +12157,38 @@
       <c r="AD115" s="3">
         <v>0</v>
       </c>
-      <c r="AG115" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH115" s="32">
+      <c r="AG115" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH115" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" spans="1:34">
-      <c r="A116" s="30">
+      <c r="A116" s="18">
         <v>207012</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G116" s="34">
-        <v>0</v>
-      </c>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34">
-        <v>1</v>
-      </c>
-      <c r="J116" s="33" t="s">
+      <c r="C116" s="20"/>
+      <c r="D116" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G116" s="22">
+        <v>0</v>
+      </c>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22">
+        <v>1</v>
+      </c>
+      <c r="J116" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K116" s="3">
@@ -12200,13 +12200,13 @@
       <c r="M116" s="3">
         <v>480</v>
       </c>
-      <c r="N116" s="33">
-        <v>0</v>
-      </c>
-      <c r="P116" s="43">
+      <c r="N116" s="21">
+        <v>0</v>
+      </c>
+      <c r="P116" s="45">
         <v>200</v>
       </c>
-      <c r="S116" s="46" t="s">
+      <c r="S116" s="47" t="s">
         <v>193</v>
       </c>
       <c r="T116" s="3">
@@ -12239,38 +12239,38 @@
       <c r="AD116" s="3">
         <v>0</v>
       </c>
-      <c r="AG116" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH116" s="32">
+      <c r="AG116" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH116" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:34">
-      <c r="A117" s="35">
+      <c r="A117" s="37">
         <v>207013</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G117" s="39">
-        <v>0</v>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39">
-        <v>1</v>
-      </c>
-      <c r="J117" s="38" t="s">
+      <c r="C117" s="39"/>
+      <c r="D117" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G117" s="41">
+        <v>0</v>
+      </c>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41">
+        <v>1</v>
+      </c>
+      <c r="J117" s="40" t="s">
         <v>172</v>
       </c>
       <c r="K117" s="4">
@@ -12282,10 +12282,10 @@
       <c r="M117" s="4">
         <v>480</v>
       </c>
-      <c r="N117" s="38">
-        <v>0</v>
-      </c>
-      <c r="P117" s="44">
+      <c r="N117" s="40">
+        <v>0</v>
+      </c>
+      <c r="P117" s="46">
         <v>200</v>
       </c>
       <c r="S117" s="48" t="s">
@@ -12324,7 +12324,7 @@
       <c r="AG117" s="49">
         <v>1</v>
       </c>
-      <c r="AH117" s="37">
+      <c r="AH117" s="39">
         <v>1</v>
       </c>
     </row>
@@ -12367,10 +12367,10 @@
       <c r="N118" s="16">
         <v>0</v>
       </c>
-      <c r="P118" s="42">
+      <c r="P118" s="44">
         <v>60</v>
       </c>
-      <c r="S118" s="24">
+      <c r="S118" s="29">
         <v>2070140</v>
       </c>
       <c r="T118" s="2">
@@ -12451,13 +12451,13 @@
       <c r="N119" s="16">
         <v>0</v>
       </c>
-      <c r="P119" s="42">
+      <c r="P119" s="44">
         <v>300</v>
       </c>
-      <c r="S119" s="23" t="s">
+      <c r="S119" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="T119" s="40" t="s">
+      <c r="T119" s="42" t="s">
         <v>199</v>
       </c>
       <c r="U119" s="2">
@@ -12528,10 +12528,10 @@
       <c r="N120" s="16">
         <v>0</v>
       </c>
-      <c r="P120" s="42">
+      <c r="P120" s="44">
         <v>60</v>
       </c>
-      <c r="S120" s="23" t="s">
+      <c r="S120" s="28" t="s">
         <v>201</v>
       </c>
       <c r="T120" s="2">
@@ -12575,7 +12575,7 @@
       <c r="B121" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="40"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="16" t="s">
         <v>172</v>
       </c>
@@ -12608,7 +12608,7 @@
       <c r="P121">
         <v>0</v>
       </c>
-      <c r="S121" s="23" t="s">
+      <c r="S121" s="28" t="s">
         <v>203</v>
       </c>
       <c r="T121" s="2">
@@ -12646,10 +12646,10 @@
       <c r="A122" s="13">
         <v>207018</v>
       </c>
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C122" s="40"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="16" t="s">
         <v>172</v>
       </c>
@@ -12682,7 +12682,7 @@
       <c r="P122">
         <v>0</v>
       </c>
-      <c r="S122" s="23" t="s">
+      <c r="S122" s="28" t="s">
         <v>205</v>
       </c>
       <c r="T122" s="2">
@@ -12756,7 +12756,7 @@
       <c r="S123" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="T123" s="40">
+      <c r="T123" s="42">
         <v>0</v>
       </c>
       <c r="U123" s="2">
@@ -12829,13 +12829,13 @@
       <c r="N124" s="16">
         <v>0</v>
       </c>
-      <c r="P124" s="42">
+      <c r="P124" s="44">
         <v>60</v>
       </c>
-      <c r="S124" s="23" t="s">
+      <c r="S124" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="T124" s="40" t="s">
+      <c r="T124" s="42" t="s">
         <v>210</v>
       </c>
       <c r="U124" s="2">
@@ -12871,10 +12871,10 @@
       <c r="A125" s="13">
         <v>910001</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="41"/>
+      <c r="C125" s="43"/>
       <c r="D125" s="16" t="s">
         <v>38</v>
       </c>
@@ -12950,10 +12950,10 @@
       <c r="A126" s="13">
         <v>910002</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C126" s="41"/>
+      <c r="C126" s="43"/>
       <c r="D126" s="16" t="s">
         <v>38</v>
       </c>
@@ -13029,10 +13029,10 @@
       <c r="A127" s="13">
         <v>910003</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="C127" s="41"/>
+      <c r="C127" s="43"/>
       <c r="D127" s="16" t="s">
         <v>38</v>
       </c>
@@ -13108,10 +13108,10 @@
       <c r="A128" s="13">
         <v>910004</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="41"/>
+      <c r="C128" s="43"/>
       <c r="D128" s="16" t="s">
         <v>38</v>
       </c>
@@ -13220,7 +13220,7 @@
       <c r="N129" s="5">
         <v>0</v>
       </c>
-      <c r="P129" s="42">
+      <c r="P129" s="44">
         <v>60</v>
       </c>
       <c r="S129" s="8" t="s">
@@ -13297,7 +13297,7 @@
       <c r="N130" s="5">
         <v>0</v>
       </c>
-      <c r="P130" s="42">
+      <c r="P130" s="44">
         <v>80</v>
       </c>
       <c r="S130" s="8" t="s">
@@ -13371,7 +13371,7 @@
       <c r="N131" s="5">
         <v>0</v>
       </c>
-      <c r="P131" s="42">
+      <c r="P131" s="44">
         <v>100</v>
       </c>
       <c r="S131" s="8" t="s">
@@ -13442,7 +13442,7 @@
       <c r="N132" s="5">
         <v>0</v>
       </c>
-      <c r="P132" s="42"/>
+      <c r="P132" s="44"/>
       <c r="S132" s="8" t="s">
         <v>224</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="N133" s="5">
         <v>0</v>
       </c>
-      <c r="P133" s="42">
+      <c r="P133" s="44">
         <v>60</v>
       </c>
       <c r="S133" s="8" t="s">
@@ -13588,7 +13588,7 @@
       <c r="N134" s="5">
         <v>0</v>
       </c>
-      <c r="P134" s="42">
+      <c r="P134" s="44">
         <v>80</v>
       </c>
       <c r="S134" s="8" t="s">
@@ -13662,7 +13662,7 @@
       <c r="N135" s="5">
         <v>0</v>
       </c>
-      <c r="P135" s="42">
+      <c r="P135" s="44">
         <v>80</v>
       </c>
       <c r="S135" s="8" t="s">
@@ -13733,7 +13733,7 @@
       <c r="N136" s="5">
         <v>0</v>
       </c>
-      <c r="P136" s="42"/>
+      <c r="P136" s="44"/>
       <c r="S136" s="8" t="s">
         <v>224</v>
       </c>
@@ -13805,7 +13805,7 @@
       <c r="N137" s="5">
         <v>0</v>
       </c>
-      <c r="P137" s="42">
+      <c r="P137" s="44">
         <v>80</v>
       </c>
       <c r="S137" s="8" t="s">
@@ -13879,7 +13879,7 @@
       <c r="N138" s="5">
         <v>0</v>
       </c>
-      <c r="P138" s="42">
+      <c r="P138" s="44">
         <v>0</v>
       </c>
       <c r="S138" s="8" t="s">
@@ -13953,7 +13953,7 @@
       <c r="N139" s="5">
         <v>0</v>
       </c>
-      <c r="P139" s="42">
+      <c r="P139" s="44">
         <v>80</v>
       </c>
       <c r="S139" s="54" t="s">
@@ -14027,7 +14027,7 @@
       <c r="N140" s="5">
         <v>0</v>
       </c>
-      <c r="P140" s="42">
+      <c r="P140" s="44">
         <v>60</v>
       </c>
       <c r="S140" s="56" t="s">
@@ -14098,7 +14098,7 @@
       <c r="N141" s="5">
         <v>0</v>
       </c>
-      <c r="P141" s="42"/>
+      <c r="P141" s="44"/>
       <c r="S141" s="8" t="s">
         <v>243</v>
       </c>
@@ -14170,7 +14170,7 @@
       <c r="N142" s="5">
         <v>0</v>
       </c>
-      <c r="P142" s="42">
+      <c r="P142" s="44">
         <v>80</v>
       </c>
       <c r="S142" s="8" t="s">
@@ -14244,7 +14244,7 @@
       <c r="N143" s="5">
         <v>0</v>
       </c>
-      <c r="P143" s="42">
+      <c r="P143" s="44">
         <v>60</v>
       </c>
       <c r="S143" s="8" t="s">
@@ -14318,7 +14318,7 @@
       <c r="N144" s="5">
         <v>0</v>
       </c>
-      <c r="P144" s="42">
+      <c r="P144" s="44">
         <v>80</v>
       </c>
       <c r="S144" s="8" t="s">
@@ -14392,7 +14392,7 @@
       <c r="N145" s="5">
         <v>0</v>
       </c>
-      <c r="P145" s="42">
+      <c r="P145" s="44">
         <v>100</v>
       </c>
       <c r="S145" s="57" t="s">
@@ -14463,7 +14463,7 @@
       <c r="N146" s="5">
         <v>0</v>
       </c>
-      <c r="P146" s="42"/>
+      <c r="P146" s="44"/>
       <c r="S146" s="8" t="s">
         <v>224</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="N147" s="5">
         <v>0</v>
       </c>
-      <c r="P147" s="42">
+      <c r="P147" s="44">
         <v>80</v>
       </c>
       <c r="S147" s="8" t="s">
@@ -14609,7 +14609,7 @@
       <c r="N148" s="5">
         <v>0</v>
       </c>
-      <c r="P148" s="42">
+      <c r="P148" s="44">
         <v>60</v>
       </c>
       <c r="S148" s="8" t="s">
@@ -14686,7 +14686,7 @@
       <c r="N149" s="5">
         <v>0</v>
       </c>
-      <c r="P149" s="42">
+      <c r="P149" s="44">
         <v>100</v>
       </c>
       <c r="S149" s="57" t="s">
@@ -14760,7 +14760,7 @@
       <c r="N150" s="5">
         <v>0</v>
       </c>
-      <c r="P150" s="42">
+      <c r="P150" s="44">
         <v>100</v>
       </c>
       <c r="S150" s="57" t="s">
@@ -14831,7 +14831,7 @@
       <c r="N151" s="5">
         <v>0</v>
       </c>
-      <c r="P151" s="42"/>
+      <c r="P151" s="44"/>
       <c r="S151" s="8" t="s">
         <v>262</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="N152" s="5">
         <v>0</v>
       </c>
-      <c r="P152" s="42">
+      <c r="P152" s="44">
         <v>80</v>
       </c>
       <c r="S152" s="8" t="s">
@@ -14977,7 +14977,7 @@
       <c r="N153" s="5">
         <v>0</v>
       </c>
-      <c r="P153" s="42">
+      <c r="P153" s="44">
         <v>60</v>
       </c>
       <c r="S153" s="8" t="s">
@@ -15051,7 +15051,7 @@
       <c r="N154" s="5">
         <v>0</v>
       </c>
-      <c r="P154" s="42">
+      <c r="P154" s="44">
         <v>80</v>
       </c>
       <c r="S154" s="8" t="s">
@@ -15125,7 +15125,7 @@
       <c r="N155" s="5">
         <v>0</v>
       </c>
-      <c r="P155" s="42">
+      <c r="P155" s="44">
         <v>80</v>
       </c>
       <c r="S155" s="57" t="s">
@@ -15196,7 +15196,7 @@
       <c r="N156" s="5">
         <v>0</v>
       </c>
-      <c r="P156" s="42"/>
+      <c r="P156" s="44"/>
       <c r="S156" s="8" t="s">
         <v>273</v>
       </c>
@@ -15268,7 +15268,7 @@
       <c r="N157" s="5">
         <v>0</v>
       </c>
-      <c r="P157" s="42">
+      <c r="P157" s="44">
         <v>80</v>
       </c>
       <c r="S157" s="57" t="s">
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="2"/>
-      <c r="P158" s="42">
+      <c r="P158" s="44">
         <v>0</v>
       </c>
       <c r="S158" s="54" t="s">
@@ -15422,7 +15422,7 @@
       <c r="N159" s="5">
         <v>0</v>
       </c>
-      <c r="P159" s="42">
+      <c r="P159" s="44">
         <v>60</v>
       </c>
       <c r="S159" s="8" t="s">
@@ -15500,7 +15500,7 @@
       <c r="N160" s="5">
         <v>0</v>
       </c>
-      <c r="P160" s="42">
+      <c r="P160" s="44">
         <v>60</v>
       </c>
       <c r="S160" s="54" t="s">
@@ -15648,7 +15648,7 @@
       <c r="N162" s="5">
         <v>0</v>
       </c>
-      <c r="P162" s="42">
+      <c r="P162" s="44">
         <v>60</v>
       </c>
       <c r="S162" s="8" t="s">
@@ -15726,7 +15726,7 @@
       <c r="N163" s="5">
         <v>0</v>
       </c>
-      <c r="P163" s="42">
+      <c r="P163" s="44">
         <v>100</v>
       </c>
       <c r="S163" s="8" t="s">
@@ -15804,7 +15804,7 @@
       <c r="N164" s="5">
         <v>0</v>
       </c>
-      <c r="P164" s="42">
+      <c r="P164" s="44">
         <v>60</v>
       </c>
       <c r="S164" s="54" t="s">
@@ -15879,7 +15879,7 @@
       <c r="N165" s="5">
         <v>0</v>
       </c>
-      <c r="P165" s="42">
+      <c r="P165" s="44">
         <v>80</v>
       </c>
       <c r="S165" s="54">
@@ -15952,7 +15952,7 @@
       <c r="N166" s="5">
         <v>0</v>
       </c>
-      <c r="P166" s="42"/>
+      <c r="P166" s="44"/>
       <c r="S166" s="8" t="s">
         <v>293</v>
       </c>
@@ -16025,7 +16025,7 @@
       <c r="N167" s="5">
         <v>0</v>
       </c>
-      <c r="P167" s="42">
+      <c r="P167" s="44">
         <v>60</v>
       </c>
       <c r="S167" s="54" t="s">
@@ -16100,7 +16100,7 @@
       <c r="N168" s="5">
         <v>0</v>
       </c>
-      <c r="P168" s="42">
+      <c r="P168" s="44">
         <v>60</v>
       </c>
       <c r="S168" s="8" t="s">
@@ -16175,7 +16175,7 @@
       <c r="N169" s="5">
         <v>0</v>
       </c>
-      <c r="P169" s="42">
+      <c r="P169" s="44">
         <v>80</v>
       </c>
       <c r="S169" s="59" t="s">
@@ -16250,7 +16250,7 @@
       <c r="N170" s="5">
         <v>0</v>
       </c>
-      <c r="P170" s="42">
+      <c r="P170" s="44">
         <v>80</v>
       </c>
       <c r="S170" s="54" t="s">
@@ -16329,7 +16329,7 @@
       <c r="N171" s="5">
         <v>0</v>
       </c>
-      <c r="P171" s="42"/>
+      <c r="P171" s="44"/>
       <c r="S171" s="8" t="s">
         <v>224</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="N172" s="5">
         <v>0</v>
       </c>
-      <c r="P172" s="42">
+      <c r="P172" s="44">
         <v>80</v>
       </c>
       <c r="S172" s="8" t="s">
@@ -16475,7 +16475,7 @@
       <c r="N173" s="5">
         <v>0</v>
       </c>
-      <c r="P173" s="42"/>
+      <c r="P173" s="44"/>
       <c r="S173" s="60">
         <v>8200066</v>
       </c>
@@ -16546,7 +16546,7 @@
       <c r="N174" s="5">
         <v>0</v>
       </c>
-      <c r="P174" s="42"/>
+      <c r="P174" s="44"/>
       <c r="S174" s="60">
         <v>8200067</v>
       </c>
@@ -16620,7 +16620,7 @@
       <c r="N175" s="5">
         <v>0</v>
       </c>
-      <c r="P175" s="42"/>
+      <c r="P175" s="44"/>
       <c r="S175" s="60">
         <v>8200068</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="N176" s="5">
         <v>0</v>
       </c>
-      <c r="P176" s="42"/>
+      <c r="P176" s="44"/>
       <c r="S176" s="60">
         <v>8200069</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="N177" s="5">
         <v>0</v>
       </c>
-      <c r="P177" s="42"/>
+      <c r="P177" s="44"/>
       <c r="S177" s="60">
         <v>8200070</v>
       </c>
@@ -16842,7 +16842,7 @@
       <c r="N178" s="5">
         <v>0</v>
       </c>
-      <c r="P178" s="42"/>
+      <c r="P178" s="44"/>
       <c r="S178" s="60">
         <v>8200071</v>
       </c>
@@ -16916,7 +16916,7 @@
       <c r="N179" s="5">
         <v>0</v>
       </c>
-      <c r="P179" s="42"/>
+      <c r="P179" s="44"/>
       <c r="S179" s="60">
         <v>8200072</v>
       </c>
@@ -17065,7 +17065,7 @@
       <c r="N181" s="5">
         <v>0</v>
       </c>
-      <c r="P181" s="42"/>
+      <c r="P181" s="44"/>
       <c r="S181" s="60">
         <v>8200074</v>
       </c>
@@ -17142,7 +17142,7 @@
       <c r="N182" s="16">
         <v>0</v>
       </c>
-      <c r="P182" s="42">
+      <c r="P182" s="44">
         <v>100</v>
       </c>
       <c r="S182" s="8" t="s">
@@ -17224,7 +17224,7 @@
       <c r="N183" s="16">
         <v>0</v>
       </c>
-      <c r="P183" s="42">
+      <c r="P183" s="44">
         <v>100</v>
       </c>
       <c r="S183" s="8" t="s">
@@ -17306,7 +17306,7 @@
       <c r="N184" s="16">
         <v>0</v>
       </c>
-      <c r="P184" s="42">
+      <c r="P184" s="44">
         <v>100</v>
       </c>
       <c r="S184" s="8" t="s">
@@ -17353,29 +17353,29 @@
       <c r="A185" s="4">
         <v>207092</v>
       </c>
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="C185" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D185" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E185" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F185" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G185" s="39">
-        <v>0</v>
-      </c>
-      <c r="H185" s="39"/>
-      <c r="I185" s="39">
-        <v>1</v>
-      </c>
-      <c r="J185" s="38" t="s">
+      <c r="C185" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D185" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E185" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G185" s="41">
+        <v>0</v>
+      </c>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41">
+        <v>1</v>
+      </c>
+      <c r="J185" s="40" t="s">
         <v>172</v>
       </c>
       <c r="K185" s="4">
@@ -17387,10 +17387,10 @@
       <c r="M185" s="4">
         <v>480</v>
       </c>
-      <c r="N185" s="38">
-        <v>0</v>
-      </c>
-      <c r="P185" s="44">
+      <c r="N185" s="40">
+        <v>0</v>
+      </c>
+      <c r="P185" s="46">
         <v>80</v>
       </c>
       <c r="S185" s="62" t="s">
@@ -17426,7 +17426,7 @@
       <c r="AG185" s="49">
         <v>1</v>
       </c>
-      <c r="AH185" s="37">
+      <c r="AH185" s="39">
         <v>1</v>
       </c>
     </row>
@@ -17470,7 +17470,7 @@
       <c r="S186" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="T186" s="40">
+      <c r="T186" s="42">
         <v>0</v>
       </c>
       <c r="U186" s="2">
@@ -17681,7 +17681,7 @@
       <c r="N189" s="16">
         <v>0</v>
       </c>
-      <c r="S189" s="23">
+      <c r="S189" s="28">
         <v>2060100</v>
       </c>
       <c r="T189" s="2">
@@ -17823,7 +17823,7 @@
       <c r="N191" s="16">
         <v>0</v>
       </c>
-      <c r="S191" s="23">
+      <c r="S191" s="28">
         <v>2060100</v>
       </c>
       <c r="T191" s="2">
@@ -17894,7 +17894,7 @@
       <c r="N192" s="16">
         <v>0</v>
       </c>
-      <c r="S192" s="23">
+      <c r="S192" s="28">
         <v>2060100</v>
       </c>
       <c r="T192" s="2">
@@ -17969,10 +17969,10 @@
       <c r="N193" s="16">
         <v>0</v>
       </c>
-      <c r="P193" s="42">
+      <c r="P193" s="44">
         <v>80</v>
       </c>
-      <c r="S193" s="23" t="s">
+      <c r="S193" s="28" t="s">
         <v>334</v>
       </c>
       <c r="T193" s="2" t="s">
@@ -18046,7 +18046,7 @@
       <c r="N194" s="16">
         <v>0</v>
       </c>
-      <c r="S194" s="23">
+      <c r="S194" s="28">
         <v>2060190</v>
       </c>
       <c r="T194" s="2">
@@ -18117,7 +18117,7 @@
       <c r="N195" s="16">
         <v>0</v>
       </c>
-      <c r="S195" s="23">
+      <c r="S195" s="28">
         <v>2060050</v>
       </c>
       <c r="T195" s="2">
@@ -18192,7 +18192,7 @@
       <c r="N196" s="16">
         <v>0</v>
       </c>
-      <c r="P196" s="42">
+      <c r="P196" s="44">
         <v>80</v>
       </c>
       <c r="S196" s="8" t="s">
@@ -18269,7 +18269,7 @@
       <c r="N197" s="16">
         <v>0</v>
       </c>
-      <c r="S197" s="23">
+      <c r="S197" s="28">
         <v>2060360</v>
       </c>
       <c r="T197" s="2">
@@ -18340,7 +18340,7 @@
       <c r="N198" s="16">
         <v>0</v>
       </c>
-      <c r="S198" s="23">
+      <c r="S198" s="28">
         <v>2060100</v>
       </c>
       <c r="T198" s="2">
@@ -18412,7 +18412,7 @@
       <c r="N199" s="5">
         <v>0</v>
       </c>
-      <c r="P199" s="42">
+      <c r="P199" s="44">
         <v>60</v>
       </c>
       <c r="S199" s="8" t="s">
@@ -18489,7 +18489,7 @@
       <c r="N200" s="16">
         <v>0</v>
       </c>
-      <c r="S200" s="23">
+      <c r="S200" s="28">
         <v>2060360</v>
       </c>
       <c r="T200" s="2">
@@ -18560,7 +18560,7 @@
       <c r="N201" s="16">
         <v>0</v>
       </c>
-      <c r="S201" s="23">
+      <c r="S201" s="28">
         <v>2060100</v>
       </c>
       <c r="T201" s="2">
@@ -18598,29 +18598,29 @@
       <c r="A202" s="4">
         <v>207109</v>
       </c>
-      <c r="B202" s="36" t="s">
+      <c r="B202" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C202" s="40" t="s">
         <v>172</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E202" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F202" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G202" s="39">
-        <v>0</v>
-      </c>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39">
-        <v>1</v>
-      </c>
-      <c r="J202" s="38" t="s">
+      <c r="E202" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G202" s="41">
+        <v>0</v>
+      </c>
+      <c r="H202" s="41"/>
+      <c r="I202" s="41">
+        <v>1</v>
+      </c>
+      <c r="J202" s="40" t="s">
         <v>172</v>
       </c>
       <c r="K202" s="4">
@@ -18632,10 +18632,10 @@
       <c r="M202" s="4">
         <v>480</v>
       </c>
-      <c r="N202" s="38">
-        <v>0</v>
-      </c>
-      <c r="P202" s="44">
+      <c r="N202" s="40">
+        <v>0</v>
+      </c>
+      <c r="P202" s="46">
         <v>80</v>
       </c>
       <c r="S202" s="62" t="s">
@@ -18671,7 +18671,7 @@
       <c r="AG202" s="49">
         <v>1</v>
       </c>
-      <c r="AH202" s="37">
+      <c r="AH202" s="39">
         <v>1</v>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       <c r="N203" s="16">
         <v>0</v>
       </c>
-      <c r="S203" s="23">
+      <c r="S203" s="28">
         <v>2060190</v>
       </c>
       <c r="T203" s="2">
@@ -18783,7 +18783,7 @@
       <c r="N204" s="16">
         <v>0</v>
       </c>
-      <c r="S204" s="23">
+      <c r="S204" s="28">
         <v>2060050</v>
       </c>
       <c r="T204" s="2">
@@ -18858,10 +18858,10 @@
       <c r="N205" s="16">
         <v>0</v>
       </c>
-      <c r="P205" s="42">
+      <c r="P205" s="44">
         <v>80</v>
       </c>
-      <c r="S205" s="23" t="s">
+      <c r="S205" s="28" t="s">
         <v>353</v>
       </c>
       <c r="T205" s="2" t="s">
@@ -18935,7 +18935,7 @@
       <c r="N206" s="16">
         <v>0</v>
       </c>
-      <c r="S206" s="23">
+      <c r="S206" s="28">
         <v>2060190</v>
       </c>
       <c r="T206" s="2">
@@ -19006,7 +19006,7 @@
       <c r="N207" s="16">
         <v>0</v>
       </c>
-      <c r="S207" s="23">
+      <c r="S207" s="28">
         <v>2060050</v>
       </c>
       <c r="T207" s="2">
@@ -19080,7 +19080,7 @@
       <c r="S208" s="71">
         <v>8200028</v>
       </c>
-      <c r="T208" s="40">
+      <c r="T208" s="42">
         <v>0</v>
       </c>
       <c r="U208" s="2">
@@ -19294,7 +19294,7 @@
       <c r="S211" s="71">
         <v>8200031</v>
       </c>
-      <c r="T211" s="40">
+      <c r="T211" s="42">
         <v>0</v>
       </c>
       <c r="U211" s="2">
@@ -19509,10 +19509,10 @@
       <c r="N214" s="16">
         <v>0</v>
       </c>
-      <c r="P214" s="42">
+      <c r="P214" s="44">
         <v>100</v>
       </c>
-      <c r="S214" s="23" t="s">
+      <c r="S214" s="28" t="s">
         <v>364</v>
       </c>
       <c r="T214" s="2">
@@ -19587,7 +19587,7 @@
       <c r="N215" s="5">
         <v>0</v>
       </c>
-      <c r="P215" s="42">
+      <c r="P215" s="44">
         <v>60</v>
       </c>
       <c r="S215" s="8" t="s">
@@ -19666,10 +19666,10 @@
       <c r="N216" s="16">
         <v>0</v>
       </c>
-      <c r="P216" s="42">
+      <c r="P216" s="44">
         <v>150</v>
       </c>
-      <c r="S216" s="23" t="s">
+      <c r="S216" s="28" t="s">
         <v>368</v>
       </c>
       <c r="T216" s="58" t="s">
@@ -19747,10 +19747,10 @@
       <c r="N217" s="16">
         <v>0</v>
       </c>
-      <c r="P217" s="42">
+      <c r="P217" s="44">
         <v>100</v>
       </c>
-      <c r="S217" s="23" t="s">
+      <c r="S217" s="28" t="s">
         <v>371</v>
       </c>
       <c r="T217" s="2">
@@ -19791,27 +19791,27 @@
       <c r="A218" s="13">
         <v>207030</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B218" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="C218" s="32"/>
-      <c r="D218" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E218" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F218" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G218" s="34">
-        <v>0</v>
-      </c>
-      <c r="H218" s="34"/>
-      <c r="I218" s="34">
-        <v>1</v>
-      </c>
-      <c r="J218" s="33" t="s">
+      <c r="C218" s="20"/>
+      <c r="D218" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E218" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G218" s="22">
+        <v>0</v>
+      </c>
+      <c r="H218" s="22"/>
+      <c r="I218" s="22">
+        <v>1</v>
+      </c>
+      <c r="J218" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K218" s="3">
@@ -19823,13 +19823,13 @@
       <c r="M218" s="3">
         <v>480</v>
       </c>
-      <c r="N218" s="33">
-        <v>0</v>
-      </c>
-      <c r="P218" s="43">
+      <c r="N218" s="21">
+        <v>0</v>
+      </c>
+      <c r="P218" s="45">
         <v>50</v>
       </c>
-      <c r="S218" s="45" t="s">
+      <c r="S218" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T218" s="3">
@@ -19851,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="Z218" s="3">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="AB218" s="3">
         <v>14</v>
@@ -19862,10 +19862,10 @@
       <c r="AD218" s="3">
         <v>0</v>
       </c>
-      <c r="AG218" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH218" s="32">
+      <c r="AG218" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH218" s="20">
         <v>1</v>
       </c>
     </row>
@@ -19873,27 +19873,27 @@
       <c r="A219" s="13">
         <v>207031</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C219" s="32"/>
-      <c r="D219" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E219" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F219" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G219" s="34">
-        <v>0</v>
-      </c>
-      <c r="H219" s="34"/>
-      <c r="I219" s="34">
-        <v>1</v>
-      </c>
-      <c r="J219" s="33" t="s">
+      <c r="C219" s="20"/>
+      <c r="D219" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E219" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G219" s="22">
+        <v>0</v>
+      </c>
+      <c r="H219" s="22"/>
+      <c r="I219" s="22">
+        <v>1</v>
+      </c>
+      <c r="J219" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K219" s="3">
@@ -19905,13 +19905,13 @@
       <c r="M219" s="3">
         <v>480</v>
       </c>
-      <c r="N219" s="33">
-        <v>0</v>
-      </c>
-      <c r="P219" s="43">
+      <c r="N219" s="21">
+        <v>0</v>
+      </c>
+      <c r="P219" s="45">
         <v>50</v>
       </c>
-      <c r="S219" s="45" t="s">
+      <c r="S219" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T219" s="3">
@@ -19933,7 +19933,7 @@
         <v>1</v>
       </c>
       <c r="Z219" s="3">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="AB219" s="3">
         <v>14</v>
@@ -19944,10 +19944,10 @@
       <c r="AD219" s="3">
         <v>0</v>
       </c>
-      <c r="AG219" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH219" s="32">
+      <c r="AG219" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH219" s="20">
         <v>1</v>
       </c>
     </row>
@@ -19958,24 +19958,24 @@
       <c r="B220" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C220" s="32"/>
-      <c r="D220" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F220" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G220" s="34">
-        <v>0</v>
-      </c>
-      <c r="H220" s="34"/>
-      <c r="I220" s="34">
-        <v>1</v>
-      </c>
-      <c r="J220" s="33" t="s">
+      <c r="C220" s="20"/>
+      <c r="D220" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E220" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G220" s="22">
+        <v>0</v>
+      </c>
+      <c r="H220" s="22"/>
+      <c r="I220" s="22">
+        <v>1</v>
+      </c>
+      <c r="J220" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K220" s="3">
@@ -19987,13 +19987,13 @@
       <c r="M220" s="3">
         <v>480</v>
       </c>
-      <c r="N220" s="33">
-        <v>0</v>
-      </c>
-      <c r="P220" s="43">
+      <c r="N220" s="21">
+        <v>0</v>
+      </c>
+      <c r="P220" s="45">
         <v>50</v>
       </c>
-      <c r="S220" s="45" t="s">
+      <c r="S220" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T220" s="3">
@@ -20015,7 +20015,7 @@
         <v>1</v>
       </c>
       <c r="Z220" s="3">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="AB220" s="3">
         <v>14</v>
@@ -20026,10 +20026,10 @@
       <c r="AD220" s="3">
         <v>0</v>
       </c>
-      <c r="AG220" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH220" s="32">
+      <c r="AG220" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH220" s="20">
         <v>1</v>
       </c>
     </row>
@@ -20040,24 +20040,24 @@
       <c r="B221" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C221" s="32"/>
-      <c r="D221" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E221" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F221" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G221" s="34">
-        <v>0</v>
-      </c>
-      <c r="H221" s="34"/>
-      <c r="I221" s="34">
-        <v>1</v>
-      </c>
-      <c r="J221" s="33" t="s">
+      <c r="C221" s="20"/>
+      <c r="D221" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E221" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G221" s="22">
+        <v>0</v>
+      </c>
+      <c r="H221" s="22"/>
+      <c r="I221" s="22">
+        <v>1</v>
+      </c>
+      <c r="J221" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K221" s="3">
@@ -20069,13 +20069,13 @@
       <c r="M221" s="3">
         <v>480</v>
       </c>
-      <c r="N221" s="33">
-        <v>0</v>
-      </c>
-      <c r="P221" s="43">
+      <c r="N221" s="21">
+        <v>0</v>
+      </c>
+      <c r="P221" s="45">
         <v>50</v>
       </c>
-      <c r="S221" s="45" t="s">
+      <c r="S221" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T221" s="3">
@@ -20097,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="Z221" s="3">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="AB221" s="3">
         <v>14</v>
@@ -20108,10 +20108,10 @@
       <c r="AD221" s="3">
         <v>0</v>
       </c>
-      <c r="AG221" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH221" s="32">
+      <c r="AG221" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH221" s="20">
         <v>1</v>
       </c>
     </row>
@@ -20122,24 +20122,24 @@
       <c r="B222" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C222" s="32"/>
-      <c r="D222" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E222" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F222" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G222" s="34">
-        <v>0</v>
-      </c>
-      <c r="H222" s="34"/>
-      <c r="I222" s="34">
-        <v>1</v>
-      </c>
-      <c r="J222" s="33" t="s">
+      <c r="C222" s="20"/>
+      <c r="D222" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E222" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G222" s="22">
+        <v>0</v>
+      </c>
+      <c r="H222" s="22"/>
+      <c r="I222" s="22">
+        <v>1</v>
+      </c>
+      <c r="J222" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K222" s="3">
@@ -20151,13 +20151,13 @@
       <c r="M222" s="3">
         <v>480</v>
       </c>
-      <c r="N222" s="33">
-        <v>0</v>
-      </c>
-      <c r="P222" s="43">
+      <c r="N222" s="21">
+        <v>0</v>
+      </c>
+      <c r="P222" s="45">
         <v>50</v>
       </c>
-      <c r="S222" s="45" t="s">
+      <c r="S222" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T222" s="3">
@@ -20179,7 +20179,7 @@
         <v>1</v>
       </c>
       <c r="Z222" s="3">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="AB222" s="3">
         <v>14</v>
@@ -20190,10 +20190,10 @@
       <c r="AD222" s="3">
         <v>0</v>
       </c>
-      <c r="AG222" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH222" s="32">
+      <c r="AG222" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH222" s="20">
         <v>1</v>
       </c>
     </row>
@@ -20204,24 +20204,24 @@
       <c r="B223" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="C223" s="32"/>
-      <c r="D223" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="E223" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F223" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G223" s="34">
-        <v>0</v>
-      </c>
-      <c r="H223" s="34"/>
-      <c r="I223" s="34">
-        <v>1</v>
-      </c>
-      <c r="J223" s="33" t="s">
+      <c r="C223" s="20"/>
+      <c r="D223" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G223" s="22">
+        <v>0</v>
+      </c>
+      <c r="H223" s="22"/>
+      <c r="I223" s="22">
+        <v>1</v>
+      </c>
+      <c r="J223" s="21" t="s">
         <v>172</v>
       </c>
       <c r="K223" s="3">
@@ -20233,13 +20233,13 @@
       <c r="M223" s="3">
         <v>480</v>
       </c>
-      <c r="N223" s="33">
-        <v>0</v>
-      </c>
-      <c r="P223" s="43">
+      <c r="N223" s="21">
+        <v>0</v>
+      </c>
+      <c r="P223" s="45">
         <v>50</v>
       </c>
-      <c r="S223" s="45" t="s">
+      <c r="S223" s="30" t="s">
         <v>373</v>
       </c>
       <c r="T223" s="3">
@@ -20261,7 +20261,7 @@
         <v>1</v>
       </c>
       <c r="Z223" s="3">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="AB223" s="3">
         <v>14</v>
@@ -20272,10 +20272,10 @@
       <c r="AD223" s="3">
         <v>0</v>
       </c>
-      <c r="AG223" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH223" s="32">
+      <c r="AG223" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH223" s="20">
         <v>1</v>
       </c>
     </row>
@@ -20325,10 +20325,10 @@
       <c r="T224" s="73">
         <v>0</v>
       </c>
-      <c r="W224" s="47">
-        <v>0</v>
-      </c>
-      <c r="X224" s="47">
+      <c r="W224" s="36">
+        <v>0</v>
+      </c>
+      <c r="X224" s="36">
         <v>0</v>
       </c>
       <c r="Y224" s="77">
@@ -20337,16 +20337,16 @@
       <c r="Z224" s="77">
         <v>203</v>
       </c>
-      <c r="AB224" s="47">
-        <v>14</v>
-      </c>
-      <c r="AC224" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD224" s="47">
-        <v>0</v>
-      </c>
-      <c r="AG224" s="47">
+      <c r="AB224" s="36">
+        <v>14</v>
+      </c>
+      <c r="AC224" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="36">
         <v>1</v>
       </c>
     </row>
@@ -20396,10 +20396,10 @@
       <c r="T225" s="73">
         <v>0</v>
       </c>
-      <c r="W225" s="47">
-        <v>0</v>
-      </c>
-      <c r="X225" s="47">
+      <c r="W225" s="36">
+        <v>0</v>
+      </c>
+      <c r="X225" s="36">
         <v>0</v>
       </c>
       <c r="Y225" s="77">
@@ -20408,16 +20408,16 @@
       <c r="Z225" s="77">
         <v>204</v>
       </c>
-      <c r="AB225" s="47">
-        <v>14</v>
-      </c>
-      <c r="AC225" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD225" s="47">
-        <v>0</v>
-      </c>
-      <c r="AG225" s="47">
+      <c r="AB225" s="36">
+        <v>14</v>
+      </c>
+      <c r="AC225" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="36">
         <v>1</v>
       </c>
     </row>
@@ -23050,7 +23050,7 @@
       <c r="N261" s="5">
         <v>9000</v>
       </c>
-      <c r="P261" s="42">
+      <c r="P261" s="44">
         <v>250</v>
       </c>
       <c r="S261" s="60">
@@ -23126,10 +23126,10 @@
       <c r="N262" s="5">
         <v>0</v>
       </c>
-      <c r="P262" s="42">
+      <c r="P262" s="44">
         <v>100</v>
       </c>
-      <c r="S262" s="23" t="s">
+      <c r="S262" s="28" t="s">
         <v>419</v>
       </c>
       <c r="T262" s="5" t="s">
@@ -23205,7 +23205,7 @@
       <c r="N263" s="5">
         <v>9000</v>
       </c>
-      <c r="P263" s="42">
+      <c r="P263" s="44">
         <v>250</v>
       </c>
       <c r="S263" s="60">
@@ -23283,7 +23283,7 @@
       <c r="N264" s="5">
         <v>0</v>
       </c>
-      <c r="P264" s="42">
+      <c r="P264" s="44">
         <v>60</v>
       </c>
       <c r="S264" s="8" t="s">
@@ -23362,7 +23362,7 @@
       <c r="N265" s="5">
         <v>9000</v>
       </c>
-      <c r="P265" s="42">
+      <c r="P265" s="44">
         <v>250</v>
       </c>
       <c r="S265" s="60">
@@ -23440,7 +23440,7 @@
       <c r="N266" s="5">
         <v>0</v>
       </c>
-      <c r="P266" s="42">
+      <c r="P266" s="44">
         <v>60</v>
       </c>
       <c r="S266" s="8" t="s">
@@ -23519,7 +23519,7 @@
       <c r="N267" s="5">
         <v>9000</v>
       </c>
-      <c r="P267" s="42">
+      <c r="P267" s="44">
         <v>250</v>
       </c>
       <c r="S267" s="60">
@@ -23595,10 +23595,10 @@
       <c r="N268" s="5">
         <v>0</v>
       </c>
-      <c r="P268" s="42">
+      <c r="P268" s="44">
         <v>100</v>
       </c>
-      <c r="S268" s="23" t="s">
+      <c r="S268" s="28" t="s">
         <v>428</v>
       </c>
       <c r="T268" s="5" t="s">
@@ -23964,10 +23964,10 @@
       <c r="N273" s="16">
         <v>0</v>
       </c>
-      <c r="P273" s="42">
+      <c r="P273" s="44">
         <v>20</v>
       </c>
-      <c r="S273" s="23" t="s">
+      <c r="S273" s="28" t="s">
         <v>435</v>
       </c>
       <c r="T273" s="2" t="s">
@@ -24048,10 +24048,10 @@
       <c r="N274" s="16">
         <v>0</v>
       </c>
-      <c r="P274" s="42">
+      <c r="P274" s="44">
         <v>20</v>
       </c>
-      <c r="S274" s="23" t="s">
+      <c r="S274" s="28" t="s">
         <v>438</v>
       </c>
       <c r="T274" s="2" t="s">
@@ -24132,10 +24132,10 @@
       <c r="N275" s="16">
         <v>0</v>
       </c>
-      <c r="P275" s="42">
+      <c r="P275" s="44">
         <v>20</v>
       </c>
-      <c r="S275" s="23" t="s">
+      <c r="S275" s="28" t="s">
         <v>440</v>
       </c>
       <c r="T275" s="2" t="s">
